--- a/ASHRAE901_ApartmentHighRise_STD2019_RochesterTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_RochesterTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2287.23</t>
+          <t>2805.30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1415.12</t>
+          <t>2700.79</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>464.13</t>
+          <t>727.07</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1383.51</t>
+          <t>2742.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>977.14</t>
+          <t>1889.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>976.66</t>
+          <t>1894.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1672.74</t>
+          <t>2135.06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1710.27</t>
+          <t>2177.97</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3162.95</t>
+          <t>3426.15</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2348.18</t>
+          <t>3502.63</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2624.88</t>
+          <t>2868.63</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1844.50</t>
+          <t>2742.69</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1451.32</t>
+          <t>2151.14</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1441.36</t>
+          <t>2123.58</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1939.32</t>
+          <t>2100.76</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1930.53</t>
+          <t>2090.00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3215.60</t>
+          <t>3476.29</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2443.50</t>
+          <t>3542.27</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2664.01</t>
+          <t>2859.89</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1929.62</t>
+          <t>2783.22</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1511.10</t>
+          <t>2179.52</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1501.11</t>
+          <t>2165.50</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1977.24</t>
+          <t>2131.40</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1964.38</t>
+          <t>2117.51</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3413.27</t>
+          <t>3511.03</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2465.72</t>
+          <t>3577.86</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2829.83</t>
+          <t>2875.79</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1947.79</t>
+          <t>2806.37</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1525.32</t>
+          <t>2199.51</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1515.25</t>
+          <t>2185.49</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2051.14</t>
+          <t>2144.66</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2036.05</t>
+          <t>2130.96</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3439.07</t>
+          <t>3538.16</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2476.38</t>
+          <t>3602.42</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2851.96</t>
+          <t>2894.25</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1956.59</t>
+          <t>2821.96</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1532.56</t>
+          <t>2199.51</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1522.50</t>
+          <t>2183.50</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>2060.54</t>
+          <t>2125.99</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2045.34</t>
+          <t>2112.82</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3460.19</t>
+          <t>3560.96</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2483.56</t>
+          <t>3623.45</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2907.03</t>
+          <t>3005.64</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1962.61</t>
+          <t>2845.75</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1537.79</t>
+          <t>2209.08</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1527.76</t>
+          <t>2193.56</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>2067.34</t>
+          <t>2119.14</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>2052.19</t>
+          <t>2105.55</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3481.78</t>
+          <t>3581.75</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2483.95</t>
+          <t>3638.17</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2991.52</t>
+          <t>3107.53</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1967.53</t>
+          <t>2940.06</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1542.24</t>
+          <t>2271.02</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1532.32</t>
+          <t>2256.90</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>2073.69</t>
+          <t>2128.80</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>2058.63</t>
+          <t>2114.12</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3502.10</t>
+          <t>3601.17</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>2443.04</t>
+          <t>3657.01</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>3075.12</t>
+          <t>3209.92</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>2026.76</t>
+          <t>3040.28</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1551.13</t>
+          <t>2287.05</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1543.57</t>
+          <t>2273.03</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>2085.45</t>
+          <t>2144.11</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>2072.44</t>
+          <t>2129.04</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3627.26</t>
+          <t>3669.07</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>2535.56</t>
+          <t>3764.67</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>3299.44</t>
+          <t>3399.02</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2156.84</t>
+          <t>3255.61</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1616.27</t>
+          <t>2364.23</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1607.12</t>
+          <t>2350.36</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2199.61</t>
+          <t>2232.53</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2185.42</t>
+          <t>2217.86</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4404.94</t>
+          <t>4521.66</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>2721.25</t>
+          <t>4371.97</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3716.59</t>
+          <t>3907.66</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>2195.28</t>
+          <t>3637.42</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1817.84</t>
+          <t>2701.83</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1798.09</t>
+          <t>2667.18</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2694.84</t>
+          <t>2799.75</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2692.21</t>
+          <t>2802.43</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2150.07</t>
+          <t>2839.44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>137.45</t>
+          <t>2745.91</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>328.47</t>
+          <t>712.74</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>136.38</t>
+          <t>2807.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>147.87</t>
+          <t>1938.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>147.57</t>
+          <t>1941.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1586.14</t>
+          <t>2113.31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1612.74</t>
+          <t>2154.74</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2369.20</t>
+          <t>3571.04</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2831.78</t>
+          <t>3541.15</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1901.95</t>
+          <t>2874.95</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1353.42</t>
+          <t>2799.02</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1717.30</t>
+          <t>2177.14</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1700.71</t>
+          <t>2172.38</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1352.02</t>
+          <t>2073.52</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1345.05</t>
+          <t>2061.68</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2447.93</t>
+          <t>3626.28</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2891.43</t>
+          <t>3583.59</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1953.01</t>
+          <t>2882.89</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2232.84</t>
+          <t>2840.02</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1752.50</t>
+          <t>2204.59</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1735.89</t>
+          <t>2190.82</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1422.86</t>
+          <t>2106.81</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1365.78</t>
+          <t>2092.32</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2480.05</t>
+          <t>3662.00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2914.83</t>
+          <t>3612.83</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1974.30</t>
+          <t>2906.83</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2252.93</t>
+          <t>2866.83</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1768.53</t>
+          <t>2222.52</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1751.95</t>
+          <t>2208.76</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1568.12</t>
+          <t>2116.96</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1633.14</t>
+          <t>2101.80</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2616.44</t>
+          <t>3680.30</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2924.47</t>
+          <t>3635.67</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1980.62</t>
+          <t>2922.48</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2261.31</t>
+          <t>2889.38</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1775.79</t>
+          <t>2250.70</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1759.35</t>
+          <t>2235.19</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1700.52</t>
+          <t>2120.07</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1686.53</t>
+          <t>2100.26</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2504.69</t>
+          <t>3695.48</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2928.04</t>
+          <t>3650.98</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2333.89</t>
+          <t>3029.19</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>1968.23</t>
+          <t>2907.99</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1778.89</t>
+          <t>2262.64</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1762.78</t>
+          <t>2246.98</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1706.23</t>
+          <t>2129.89</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1692.28</t>
+          <t>2112.94</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2515.18</t>
+          <t>3712.72</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2929.30</t>
+          <t>3669.52</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2391.67</t>
+          <t>3133.28</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1399.86</t>
+          <t>2984.53</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1780.95</t>
+          <t>2274.33</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1764.92</t>
+          <t>2258.83</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1709.60</t>
+          <t>2148.16</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1695.83</t>
+          <t>2130.10</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2525.71</t>
+          <t>3734.98</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>2932.86</t>
+          <t>3692.55</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2459.53</t>
+          <t>3237.61</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>836.42</t>
+          <t>3088.74</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1786.96</t>
+          <t>2292.22</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1534.67</t>
+          <t>2276.43</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1713.83</t>
+          <t>2169.28</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1700.63</t>
+          <t>2152.34</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2621.91</t>
+          <t>3856.65</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3016.17</t>
+          <t>3800.74</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2629.54</t>
+          <t>3427.59</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>1051.74</t>
+          <t>3317.19</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1857.95</t>
+          <t>2371.10</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1697.14</t>
+          <t>2363.03</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1758.23</t>
+          <t>2253.54</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1745.54</t>
+          <t>2240.97</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>3183.17</t>
+          <t>4674.88</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>2622.09</t>
+          <t>4412.18</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2658.80</t>
+          <t>3968.34</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>2122.38</t>
+          <t>3751.72</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2167.34</t>
+          <t>2745.45</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2137.00</t>
+          <t>2708.13</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2067.53</t>
+          <t>2799.69</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2061.91</t>
+          <t>2815.34</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1893.85</t>
+          <t>2808.11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1754.29</t>
+          <t>2761.34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>311.04</t>
+          <t>576.10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1745.19</t>
+          <t>2810.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1195.83</t>
+          <t>1933.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1197.62</t>
+          <t>1934.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1388.32</t>
+          <t>2078.29</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1416.00</t>
+          <t>2125.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2554.38</t>
+          <t>3463.13</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2462.89</t>
+          <t>3581.03</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2060.58</t>
+          <t>2823.37</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1917.57</t>
+          <t>2793.31</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1437.23</t>
+          <t>2222.54</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1428.00</t>
+          <t>2208.28</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1396.09</t>
+          <t>2078.73</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1434.69</t>
+          <t>2065.53</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2607.76</t>
+          <t>3514.00</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2543.33</t>
+          <t>3644.74</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2101.27</t>
+          <t>2859.15</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1980.08</t>
+          <t>2852.18</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1496.92</t>
+          <t>2252.71</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1487.58</t>
+          <t>2238.26</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1487.13</t>
+          <t>2112.96</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1474.13</t>
+          <t>2099.25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2636.20</t>
+          <t>3556.64</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2571.71</t>
+          <t>3684.13</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2118.27</t>
+          <t>2882.49</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1999.19</t>
+          <t>2880.38</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1509.46</t>
+          <t>2267.20</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1500.22</t>
+          <t>2252.78</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1499.37</t>
+          <t>2065.82</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1489.60</t>
+          <t>2048.88</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2651.46</t>
+          <t>3585.14</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2581.05</t>
+          <t>3719.70</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2134.79</t>
+          <t>2904.40</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2008.43</t>
+          <t>2895.24</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1504.91</t>
+          <t>2259.55</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1496.25</t>
+          <t>2242.28</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1489.92</t>
+          <t>2077.67</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1492.57</t>
+          <t>2066.68</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2663.43</t>
+          <t>3610.52</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2582.32</t>
+          <t>3752.53</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2191.19</t>
+          <t>3019.89</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2013.90</t>
+          <t>2915.95</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1485.39</t>
+          <t>2270.79</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1478.31</t>
+          <t>2253.83</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1451.75</t>
+          <t>2086.41</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1442.01</t>
+          <t>2074.73</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2674.05</t>
+          <t>3633.13</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2586.76</t>
+          <t>3779.75</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2275.60</t>
+          <t>3122.80</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2019.06</t>
+          <t>3010.16</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1484.31</t>
+          <t>2281.79</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1475.24</t>
+          <t>2264.21</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1455.53</t>
+          <t>2096.02</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1445.81</t>
+          <t>2083.54</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2681.47</t>
+          <t>3662.35</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2602.39</t>
+          <t>3801.65</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2355.20</t>
+          <t>3227.95</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2089.45</t>
+          <t>3109.23</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1492.80</t>
+          <t>2300.13</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1485.88</t>
+          <t>2282.56</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1465.45</t>
+          <t>2110.96</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1455.88</t>
+          <t>2098.72</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2768.12</t>
+          <t>3789.94</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2702.32</t>
+          <t>3911.20</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2514.30</t>
+          <t>3423.91</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2241.55</t>
+          <t>3337.49</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1572.81</t>
+          <t>2402.15</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1568.55</t>
+          <t>2384.24</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1547.84</t>
+          <t>2202.07</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1538.54</t>
+          <t>2189.03</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3528.26</t>
+          <t>4546.12</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3422.59</t>
+          <t>4650.23</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3100.50</t>
+          <t>3951.19</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2754.95</t>
+          <t>3769.17</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2047.84</t>
+          <t>2779.56</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2029.95</t>
+          <t>2741.94</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2100.14</t>
+          <t>2760.99</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2109.19</t>
+          <t>2765.74</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1731.26</t>
+          <t>2731.23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1780.68</t>
+          <t>2713.62</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>250.13</t>
+          <t>543.82</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1761.04</t>
+          <t>2827.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1239.82</t>
+          <t>1937.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1241.35</t>
+          <t>1943.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1294.68</t>
+          <t>2030.65</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1323.04</t>
+          <t>2109.67</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2369.47</t>
+          <t>3365.72</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2464.43</t>
+          <t>3487.00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2089.86</t>
+          <t>2784.84</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1897.76</t>
+          <t>2806.89</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1495.95</t>
+          <t>2167.01</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1485.65</t>
+          <t>2156.10</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1362.55</t>
+          <t>1968.45</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1357.40</t>
+          <t>1957.86</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2420.08</t>
+          <t>3410.11</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2512.68</t>
+          <t>3597.00</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2076.87</t>
+          <t>2786.32</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1945.90</t>
+          <t>2852.20</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1521.66</t>
+          <t>2197.18</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1519.66</t>
+          <t>2184.62</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1392.32</t>
+          <t>1997.15</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1382.20</t>
+          <t>1985.07</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2495.13</t>
+          <t>3448.71</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2519.96</t>
+          <t>3635.72</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2054.30</t>
+          <t>2808.18</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2009.71</t>
+          <t>2872.63</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1535.60</t>
+          <t>2214.95</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1533.59</t>
+          <t>2202.43</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1408.49</t>
+          <t>2017.16</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1397.90</t>
+          <t>2004.60</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2504.91</t>
+          <t>3465.54</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2522.89</t>
+          <t>3662.86</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2051.51</t>
+          <t>2824.27</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2015.68</t>
+          <t>2890.27</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1546.41</t>
+          <t>2228.24</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1536.44</t>
+          <t>2215.96</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1420.24</t>
+          <t>2023.72</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1409.47</t>
+          <t>2008.64</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2511.55</t>
+          <t>3475.28</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2527.63</t>
+          <t>3594.73</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2050.04</t>
+          <t>2930.79</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2018.58</t>
+          <t>2911.93</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1547.42</t>
+          <t>2238.43</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1538.78</t>
+          <t>2227.09</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1429.75</t>
+          <t>2036.55</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1418.85</t>
+          <t>2021.49</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2519.66</t>
+          <t>3491.64</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2538.45</t>
+          <t>3614.37</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2074.16</t>
+          <t>3028.66</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2021.94</t>
+          <t>3012.54</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1550.94</t>
+          <t>2246.78</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1542.27</t>
+          <t>2238.06</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1438.70</t>
+          <t>2048.75</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1427.68</t>
+          <t>2033.62</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2526.94</t>
+          <t>3514.30</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2525.08</t>
+          <t>3637.61</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2112.22</t>
+          <t>3130.74</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2055.66</t>
+          <t>3114.34</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1561.88</t>
+          <t>2263.94</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1554.44</t>
+          <t>2254.86</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1452.38</t>
+          <t>2066.68</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1441.28</t>
+          <t>2051.53</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2598.26</t>
+          <t>3614.89</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2595.79</t>
+          <t>3739.18</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2213.80</t>
+          <t>3316.24</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2204.25</t>
+          <t>3328.97</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1636.50</t>
+          <t>2352.43</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1624.37</t>
+          <t>2339.56</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1528.17</t>
+          <t>2134.04</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1517.20</t>
+          <t>2122.15</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3261.48</t>
+          <t>4255.35</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3351.98</t>
+          <t>4339.48</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2766.49</t>
+          <t>3824.39</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2621.47</t>
+          <t>3792.14</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1947.90</t>
+          <t>2698.76</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1927.05</t>
+          <t>2680.37</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1927.52</t>
+          <t>2633.62</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1925.16</t>
+          <t>2637.90</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2054.38</t>
+          <t>2664.55</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2128.82</t>
+          <t>2697.78</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>34.59</t>
+          <t>866.83</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2073.20</t>
+          <t>2832.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1421.61</t>
+          <t>1930.83</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1423.38</t>
+          <t>1935.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1469.51</t>
+          <t>1993.23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1514.53</t>
+          <t>2045.44</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2684.17</t>
+          <t>3297.64</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2884.90</t>
+          <t>3504.86</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2190.91</t>
+          <t>2734.59</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2228.49</t>
+          <t>2761.63</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1706.23</t>
+          <t>2153.72</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1694.75</t>
+          <t>2139.99</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1493.40</t>
+          <t>1910.77</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1490.11</t>
+          <t>1898.29</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2719.24</t>
+          <t>3336.43</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2915.99</t>
+          <t>3556.58</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2170.56</t>
+          <t>2752.79</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2270.45</t>
+          <t>2812.12</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1737.76</t>
+          <t>2170.29</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1726.56</t>
+          <t>2156.30</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1531.19</t>
+          <t>1941.57</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1522.19</t>
+          <t>1927.88</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2735.51</t>
+          <t>3363.22</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2930.76</t>
+          <t>3585.02</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2180.14</t>
+          <t>2793.03</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2286.23</t>
+          <t>2845.41</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1753.76</t>
+          <t>2192.33</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1742.72</t>
+          <t>2178.34</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1548.60</t>
+          <t>1964.02</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1538.58</t>
+          <t>1950.06</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2745.95</t>
+          <t>3386.82</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2942.79</t>
+          <t>3607.91</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2189.63</t>
+          <t>2817.85</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2295.77</t>
+          <t>2867.31</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1762.77</t>
+          <t>2204.80</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1751.82</t>
+          <t>2196.13</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1558.86</t>
+          <t>1981.03</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1548.50</t>
+          <t>1965.16</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2742.95</t>
+          <t>3408.55</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2952.31</t>
+          <t>3629.10</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2232.03</t>
+          <t>2934.31</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2303.03</t>
+          <t>2895.67</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1770.74</t>
+          <t>2219.90</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1759.79</t>
+          <t>2205.94</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1568.01</t>
+          <t>1994.00</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1557.56</t>
+          <t>1978.13</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2754.66</t>
+          <t>3428.51</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2961.31</t>
+          <t>3648.41</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2300.24</t>
+          <t>3037.96</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2309.71</t>
+          <t>2998.25</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1776.85</t>
+          <t>2234.00</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1765.58</t>
+          <t>2220.03</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1574.33</t>
+          <t>2006.55</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1563.66</t>
+          <t>1990.68</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2770.19</t>
+          <t>3452.40</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2975.89</t>
+          <t>3672.06</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2372.10</t>
+          <t>3144.66</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2382.07</t>
+          <t>3103.15</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1788.11</t>
+          <t>2252.98</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1779.21</t>
+          <t>2239.06</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1585.39</t>
+          <t>2025.67</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1574.57</t>
+          <t>2009.86</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2864.46</t>
+          <t>3548.59</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3075.35</t>
+          <t>3768.19</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2530.95</t>
+          <t>3332.31</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2546.47</t>
+          <t>3325.50</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1863.82</t>
+          <t>2341.16</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1852.49</t>
+          <t>2327.17</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1658.09</t>
+          <t>2112.05</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1647.47</t>
+          <t>2097.60</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3402.72</t>
+          <t>4104.95</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3610.18</t>
+          <t>4296.34</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2912.47</t>
+          <t>3771.93</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2974.14</t>
+          <t>3783.86</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2198.55</t>
+          <t>2719.64</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2169.75</t>
+          <t>2681.06</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2012.69</t>
+          <t>2589.71</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2007.65</t>
+          <t>2597.36</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1745.21</t>
+          <t>2614.67</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1862.55</t>
+          <t>2660.57</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>325.32</t>
+          <t>828.81</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1646.40</t>
+          <t>2713.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1162.36</t>
+          <t>1885.01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1163.79</t>
+          <t>1889.60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1192.93</t>
+          <t>1966.73</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1250.75</t>
+          <t>2007.03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2334.96</t>
+          <t>3227.08</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2530.80</t>
+          <t>3423.94</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1909.77</t>
+          <t>2638.21</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1900.05</t>
+          <t>2677.77</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1444.57</t>
+          <t>2086.14</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1450.31</t>
+          <t>2072.33</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1275.59</t>
+          <t>1861.26</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1276.09</t>
+          <t>1848.79</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2343.77</t>
+          <t>3270.52</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2551.45</t>
+          <t>3467.10</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1833.02</t>
+          <t>2624.14</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1922.14</t>
+          <t>2714.49</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1479.22</t>
+          <t>2113.64</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1474.35</t>
+          <t>2099.80</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1307.00</t>
+          <t>1890.26</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1297.79</t>
+          <t>1876.73</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2347.77</t>
+          <t>3304.72</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2568.84</t>
+          <t>3500.68</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1832.93</t>
+          <t>2647.93</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1934.32</t>
+          <t>2736.97</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1490.37</t>
+          <t>2135.67</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1485.70</t>
+          <t>2121.84</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1320.34</t>
+          <t>1912.74</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1310.81</t>
+          <t>1899.02</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2362.28</t>
+          <t>3332.85</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2582.47</t>
+          <t>3528.29</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1834.11</t>
+          <t>2668.63</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1944.04</t>
+          <t>2755.28</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1494.37</t>
+          <t>2153.63</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1491.78</t>
+          <t>2139.79</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1328.14</t>
+          <t>1930.85</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1320.15</t>
+          <t>1917.09</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2374.63</t>
+          <t>3356.91</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2593.90</t>
+          <t>3551.95</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1862.66</t>
+          <t>2774.46</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1952.29</t>
+          <t>2779.22</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1490.17</t>
+          <t>2170.89</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1495.92</t>
+          <t>2156.98</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1333.53</t>
+          <t>1939.07</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1327.57</t>
+          <t>1925.34</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2387.61</t>
+          <t>3378.86</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2604.47</t>
+          <t>3573.58</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1884.07</t>
+          <t>2871.66</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1960.08</t>
+          <t>2877.09</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1485.68</t>
+          <t>2175.21</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1497.95</t>
+          <t>2161.40</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1338.10</t>
+          <t>1953.42</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1332.49</t>
+          <t>1939.68</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2402.84</t>
+          <t>3404.44</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2619.19</t>
+          <t>3599.03</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1901.44</t>
+          <t>2975.45</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2025.35</t>
+          <t>2977.79</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1489.48</t>
+          <t>2194.34</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1493.79</t>
+          <t>2180.56</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1345.51</t>
+          <t>1972.50</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1340.21</t>
+          <t>1958.79</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2487.17</t>
+          <t>3507.02</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2709.18</t>
+          <t>3697.68</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1976.65</t>
+          <t>3164.92</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2133.91</t>
+          <t>3190.76</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1542.95</t>
+          <t>2275.98</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1548.98</t>
+          <t>2262.15</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1402.59</t>
+          <t>2053.09</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1400.63</t>
+          <t>2039.43</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2942.84</t>
+          <t>3980.58</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3165.92</t>
+          <t>4144.65</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2398.53</t>
+          <t>3561.63</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2492.96</t>
+          <t>3555.47</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1889.58</t>
+          <t>2638.94</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1862.33</t>
+          <t>2606.55</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1726.41</t>
+          <t>2491.04</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1726.51</t>
+          <t>2491.61</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1819.36</t>
+          <t>2574.47</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1932.81</t>
+          <t>2649.27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>467.97</t>
+          <t>1074.22</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1728.81</t>
+          <t>2765.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1222.83</t>
+          <t>1910.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1224.52</t>
+          <t>1914.81</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1254.83</t>
+          <t>1962.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1315.90</t>
+          <t>2005.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2379.16</t>
+          <t>3099.34</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2553.23</t>
+          <t>3336.97</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1986.98</t>
+          <t>2597.30</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1965.33</t>
+          <t>2677.67</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1450.59</t>
+          <t>2106.45</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1439.78</t>
+          <t>2092.76</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1245.25</t>
+          <t>1853.23</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1245.18</t>
+          <t>1842.28</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2390.79</t>
+          <t>3127.90</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2553.85</t>
+          <t>3374.28</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1909.30</t>
+          <t>2591.87</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1980.43</t>
+          <t>2712.37</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1459.85</t>
+          <t>2124.37</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1451.93</t>
+          <t>2110.72</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1262.14</t>
+          <t>1870.90</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1252.81</t>
+          <t>1857.86</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2392.56</t>
+          <t>3161.28</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2555.19</t>
+          <t>3405.32</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1882.11</t>
+          <t>2615.88</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1989.11</t>
+          <t>2734.73</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1470.37</t>
+          <t>2143.15</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1462.51</t>
+          <t>2129.52</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1273.19</t>
+          <t>1891.22</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1263.08</t>
+          <t>1877.94</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2393.11</t>
+          <t>3186.91</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2555.90</t>
+          <t>3431.02</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1891.59</t>
+          <t>2636.39</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1991.89</t>
+          <t>2752.83</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1478.49</t>
+          <t>2158.56</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1470.62</t>
+          <t>2144.94</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1283.76</t>
+          <t>1907.58</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1273.42</t>
+          <t>1894.27</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2393.50</t>
+          <t>3210.28</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2556.26</t>
+          <t>3453.06</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1934.86</t>
+          <t>2740.06</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1994.34</t>
+          <t>2776.94</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1485.67</t>
+          <t>2171.76</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1477.74</t>
+          <t>2158.15</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1293.38</t>
+          <t>1921.45</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1282.94</t>
+          <t>1908.13</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2394.48</t>
+          <t>3231.55</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2563.62</t>
+          <t>3473.29</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1955.95</t>
+          <t>2834.97</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1997.34</t>
+          <t>2870.19</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1492.49</t>
+          <t>2184.24</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1484.45</t>
+          <t>2170.65</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1302.51</t>
+          <t>1934.46</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1291.97</t>
+          <t>1921.13</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2401.15</t>
+          <t>3256.22</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2577.72</t>
+          <t>3497.68</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1997.16</t>
+          <t>2935.22</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2052.02</t>
+          <t>2967.76</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1503.72</t>
+          <t>2202.01</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1497.80</t>
+          <t>2188.48</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1315.93</t>
+          <t>1952.26</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1305.30</t>
+          <t>1938.98</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2486.94</t>
+          <t>3348.09</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2668.49</t>
+          <t>3592.63</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2058.62</t>
+          <t>3111.60</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2125.19</t>
+          <t>3174.94</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1574.04</t>
+          <t>2287.03</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1565.48</t>
+          <t>2273.44</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1383.12</t>
+          <t>2032.25</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1374.66</t>
+          <t>2019.02</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3030.60</t>
+          <t>3817.24</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3204.53</t>
+          <t>4048.69</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2477.65</t>
+          <t>3452.76</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2532.22</t>
+          <t>3518.62</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1936.08</t>
+          <t>2589.69</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1910.21</t>
+          <t>2561.74</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1768.78</t>
+          <t>2430.85</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1766.04</t>
+          <t>2431.83</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1905.37</t>
+          <t>2451.65</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1873.46</t>
+          <t>2475.16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>670.51</t>
+          <t>1302.65</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1624.45</t>
+          <t>2360.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1199.24</t>
+          <t>1699.92</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1200.96</t>
+          <t>1703.83</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1341.46</t>
+          <t>1775.39</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1392.01</t>
+          <t>1820.09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2424.82</t>
+          <t>3047.35</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2428.55</t>
+          <t>3133.87</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2003.75</t>
+          <t>2514.60</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1906.54</t>
+          <t>2516.18</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1415.28</t>
+          <t>1891.37</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1404.15</t>
+          <t>1877.98</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1285.08</t>
+          <t>1714.35</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1282.57</t>
+          <t>1705.50</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2418.74</t>
+          <t>3084.08</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2413.42</t>
+          <t>3133.60</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1963.59</t>
+          <t>2508.61</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1911.58</t>
+          <t>2555.89</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1422.14</t>
+          <t>1906.53</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1411.66</t>
+          <t>1896.86</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1300.53</t>
+          <t>1741.76</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1291.49</t>
+          <t>1730.35</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2429.00</t>
+          <t>3115.60</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2416.92</t>
+          <t>3165.04</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1965.61</t>
+          <t>2534.31</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1916.61</t>
+          <t>2586.87</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1430.10</t>
+          <t>1927.37</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1419.61</t>
+          <t>1914.21</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1310.17</t>
+          <t>1765.06</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1300.11</t>
+          <t>1752.14</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2434.57</t>
+          <t>3142.11</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2422.78</t>
+          <t>3196.78</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1973.03</t>
+          <t>2556.93</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1920.60</t>
+          <t>2606.51</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1437.12</t>
+          <t>1941.93</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1426.63</t>
+          <t>1934.77</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1318.01</t>
+          <t>1780.03</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1307.70</t>
+          <t>1770.14</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2439.37</t>
+          <t>3164.95</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2428.51</t>
+          <t>3224.95</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2017.29</t>
+          <t>2661.59</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1924.53</t>
+          <t>2636.21</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1443.30</t>
+          <t>1960.48</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1432.79</t>
+          <t>1947.52</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1324.75</t>
+          <t>1796.76</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1314.26</t>
+          <t>1787.06</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2444.66</t>
+          <t>3185.94</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2434.38</t>
+          <t>3251.13</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2081.31</t>
+          <t>2756.87</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1928.21</t>
+          <t>2732.11</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1449.55</t>
+          <t>1974.36</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1439.03</t>
+          <t>1966.72</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1331.47</t>
+          <t>1811.23</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1320.85</t>
+          <t>1804.37</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2455.36</t>
+          <t>3210.76</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2444.59</t>
+          <t>3288.08</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2116.26</t>
+          <t>2857.14</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1934.80</t>
+          <t>2828.53</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1460.96</t>
+          <t>2001.90</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1453.02</t>
+          <t>1992.72</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1343.08</t>
+          <t>1827.89</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1332.53</t>
+          <t>1821.59</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2538.09</t>
+          <t>3318.97</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2510.70</t>
+          <t>3385.93</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2189.40</t>
+          <t>3034.68</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2006.43</t>
+          <t>2954.24</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1533.74</t>
+          <t>2105.34</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1523.18</t>
+          <t>2090.77</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1413.36</t>
+          <t>1913.96</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1402.83</t>
+          <t>1900.85</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2991.09</t>
+          <t>3628.53</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2968.53</t>
+          <t>3756.20</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2613.95</t>
+          <t>3421.55</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2419.47</t>
+          <t>3354.00</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1851.30</t>
+          <t>2412.50</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1834.85</t>
+          <t>2380.16</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1807.89</t>
+          <t>2351.96</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1806.86</t>
+          <t>2352.42</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1957.69</t>
+          <t>2660.00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1917.37</t>
+          <t>2718.27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>790.30</t>
+          <t>1350.57</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1906.88</t>
+          <t>2793.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1321.44</t>
+          <t>1929.80</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1324.18</t>
+          <t>1934.89</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1439.79</t>
+          <t>2006.32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1507.38</t>
+          <t>2046.38</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2492.55</t>
+          <t>3218.84</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2433.05</t>
+          <t>3433.83</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2137.20</t>
+          <t>2666.16</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1912.58</t>
+          <t>2699.95</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1496.01</t>
+          <t>2123.43</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1486.71</t>
+          <t>2109.99</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1396.50</t>
+          <t>1896.06</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1393.98</t>
+          <t>1884.94</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2501.71</t>
+          <t>3247.99</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2413.19</t>
+          <t>3479.10</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2115.23</t>
+          <t>2652.47</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1924.51</t>
+          <t>2734.06</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1499.67</t>
+          <t>2148.98</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1490.57</t>
+          <t>2135.51</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1413.94</t>
+          <t>1921.73</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1404.68</t>
+          <t>1908.44</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2512.20</t>
+          <t>3279.91</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2425.67</t>
+          <t>3515.70</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2099.47</t>
+          <t>2671.23</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1935.33</t>
+          <t>2759.77</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1507.62</t>
+          <t>2170.64</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1498.54</t>
+          <t>2157.18</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1425.23</t>
+          <t>1943.61</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1415.24</t>
+          <t>1929.99</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2521.67</t>
+          <t>3310.79</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2437.31</t>
+          <t>3543.03</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2077.76</t>
+          <t>2689.49</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1945.07</t>
+          <t>2780.78</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1515.24</t>
+          <t>2188.20</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1506.17</t>
+          <t>2174.74</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1436.39</t>
+          <t>1961.29</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1426.26</t>
+          <t>1947.58</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2529.99</t>
+          <t>3337.19</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2447.63</t>
+          <t>3559.73</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2071.77</t>
+          <t>2796.81</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1953.59</t>
+          <t>2807.45</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1522.09</t>
+          <t>2203.74</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1513.00</t>
+          <t>2190.28</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1446.22</t>
+          <t>1976.34</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1435.99</t>
+          <t>1962.58</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2539.76</t>
+          <t>3361.18</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2457.65</t>
+          <t>3575.50</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2080.10</t>
+          <t>2895.28</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1961.71</t>
+          <t>2906.43</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1528.87</t>
+          <t>2218.25</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1519.78</t>
+          <t>2204.77</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1455.67</t>
+          <t>1990.41</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1445.07</t>
+          <t>1976.62</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2548.37</t>
+          <t>3388.45</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2473.27</t>
+          <t>3597.47</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2094.81</t>
+          <t>2999.37</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2025.86</t>
+          <t>3006.90</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1541.18</t>
+          <t>2238.48</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1534.35</t>
+          <t>2225.02</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1469.59</t>
+          <t>2009.24</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1458.93</t>
+          <t>1995.48</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2625.78</t>
+          <t>3485.46</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2547.47</t>
+          <t>3703.63</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2215.31</t>
+          <t>3180.58</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2153.71</t>
+          <t>3216.86</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1604.12</t>
+          <t>2321.40</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1594.97</t>
+          <t>2307.93</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1543.59</t>
+          <t>2090.06</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1533.03</t>
+          <t>2076.32</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3057.78</t>
+          <t>3966.55</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2834.69</t>
+          <t>4181.77</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2739.17</t>
+          <t>3549.69</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2435.91</t>
+          <t>3553.94</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1825.81</t>
+          <t>2615.46</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1807.26</t>
+          <t>2585.87</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1958.10</t>
+          <t>2500.75</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1957.69</t>
+          <t>2501.03</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2497.12</t>
+          <t>2809.59</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2399.61</t>
+          <t>2793.57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1066.27</t>
+          <t>1541.30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2400.80</t>
+          <t>2848.74</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1626.70</t>
+          <t>1970.09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1632.08</t>
+          <t>1973.32</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1821.72</t>
+          <t>2160.36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1873.08</t>
+          <t>2186.99</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3120.15</t>
+          <t>3413.96</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3127.85</t>
+          <t>3554.30</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2637.38</t>
+          <t>2900.29</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2445.18</t>
+          <t>2792.01</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1862.87</t>
+          <t>2192.78</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1849.67</t>
+          <t>2177.49</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1804.99</t>
+          <t>2067.06</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1801.97</t>
+          <t>2049.48</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3140.81</t>
+          <t>3465.37</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3142.28</t>
+          <t>3585.58</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2615.44</t>
+          <t>2881.94</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2484.19</t>
+          <t>2830.02</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1886.93</t>
+          <t>2220.16</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1872.85</t>
+          <t>2206.23</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1828.50</t>
+          <t>2083.66</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1819.10</t>
+          <t>2080.46</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3157.87</t>
+          <t>3500.36</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3153.45</t>
+          <t>3610.36</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2615.46</t>
+          <t>2893.96</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2503.24</t>
+          <t>2852.88</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1938.87</t>
+          <t>2236.44</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1910.72</t>
+          <t>2222.55</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1831.06</t>
+          <t>2097.56</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1829.00</t>
+          <t>2087.70</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3171.35</t>
+          <t>3515.95</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3204.51</t>
+          <t>3631.98</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2625.01</t>
+          <t>2902.26</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2519.08</t>
+          <t>2877.83</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1950.59</t>
+          <t>2249.92</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1939.51</t>
+          <t>2236.02</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1825.86</t>
+          <t>2108.49</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1826.86</t>
+          <t>2097.72</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3183.33</t>
+          <t>3541.10</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3218.79</t>
+          <t>3646.82</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2675.80</t>
+          <t>3004.65</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2533.37</t>
+          <t>2898.28</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1957.11</t>
+          <t>2259.27</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1952.07</t>
+          <t>2247.50</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1832.18</t>
+          <t>2120.40</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1822.04</t>
+          <t>2107.40</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3197.11</t>
+          <t>3565.00</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3236.57</t>
+          <t>3664.92</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2759.97</t>
+          <t>3091.98</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2546.82</t>
+          <t>2991.61</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1956.73</t>
+          <t>2270.40</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1956.54</t>
+          <t>2256.53</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1839.10</t>
+          <t>2127.32</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1830.05</t>
+          <t>2119.35</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3213.16</t>
+          <t>3591.59</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3250.26</t>
+          <t>3685.67</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2846.61</t>
+          <t>3192.72</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2628.31</t>
+          <t>3095.13</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1961.34</t>
+          <t>2282.48</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1972.61</t>
+          <t>2273.17</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1853.98</t>
+          <t>2139.20</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1842.39</t>
+          <t>2127.03</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3306.34</t>
+          <t>3689.96</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3340.51</t>
+          <t>3786.18</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>3024.80</t>
+          <t>3375.97</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2794.54</t>
+          <t>3313.00</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2037.21</t>
+          <t>2374.24</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2038.66</t>
+          <t>2360.58</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1934.51</t>
+          <t>2218.34</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1924.51</t>
+          <t>2206.28</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4060.12</t>
+          <t>4415.54</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>4016.49</t>
+          <t>4400.92</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3576.98</t>
+          <t>3951.40</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3346.72</t>
+          <t>3764.32</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2452.17</t>
+          <t>2761.73</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2428.07</t>
+          <t>2725.67</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2479.76</t>
+          <t>2731.82</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2483.87</t>
+          <t>2745.25</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2766.27</t>
+          <t>2848.68</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2512.18</t>
+          <t>2797.79</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>934.56</t>
+          <t>1301.86</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2499.26</t>
+          <t>2860.94</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1730.86</t>
+          <t>1993.28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1734.00</t>
+          <t>1998.02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2016.56</t>
+          <t>2146.89</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2059.37</t>
+          <t>2197.30</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3474.36</t>
+          <t>3473.50</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3227.13</t>
+          <t>3578.94</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2831.53</t>
+          <t>2885.88</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2546.25</t>
+          <t>2818.93</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1982.72</t>
+          <t>2230.74</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1970.18</t>
+          <t>2216.71</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1928.00</t>
+          <t>2072.35</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1921.07</t>
+          <t>2067.47</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3508.25</t>
+          <t>3517.23</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3244.05</t>
+          <t>3625.42</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2812.72</t>
+          <t>2924.66</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2568.72</t>
+          <t>2859.40</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1993.23</t>
+          <t>2257.50</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1980.89</t>
+          <t>2243.61</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1979.31</t>
+          <t>2104.01</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1964.65</t>
+          <t>2091.66</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3529.41</t>
+          <t>3552.36</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3250.38</t>
+          <t>3653.29</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2850.62</t>
+          <t>2940.60</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2572.74</t>
+          <t>2879.52</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1998.93</t>
+          <t>2277.46</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1986.65</t>
+          <t>2264.85</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2036.59</t>
+          <t>2123.63</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2021.37</t>
+          <t>2112.41</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3541.18</t>
+          <t>3581.78</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3250.71</t>
+          <t>3681.14</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2859.41</t>
+          <t>2957.86</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2570.70</t>
+          <t>2899.68</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2001.47</t>
+          <t>2268.23</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1989.14</t>
+          <t>2280.70</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2045.65</t>
+          <t>2125.70</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2030.71</t>
+          <t>2111.67</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3550.37</t>
+          <t>3606.62</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3110.13</t>
+          <t>3705.02</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2906.17</t>
+          <t>3069.58</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2569.66</t>
+          <t>2920.84</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2002.71</t>
+          <t>2282.74</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1990.50</t>
+          <t>2268.99</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2053.23</t>
+          <t>2147.06</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2038.30</t>
+          <t>2124.79</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3558.77</t>
+          <t>3629.12</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3122.84</t>
+          <t>3725.92</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2986.67</t>
+          <t>3171.46</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2468.98</t>
+          <t>3018.25</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1925.11</t>
+          <t>2314.23</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1912.79</t>
+          <t>2300.35</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2060.91</t>
+          <t>2165.33</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2046.23</t>
+          <t>2143.82</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3571.23</t>
+          <t>3647.78</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3140.60</t>
+          <t>3751.80</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>3078.99</t>
+          <t>3276.98</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2548.84</t>
+          <t>3118.59</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1939.45</t>
+          <t>2332.80</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1929.80</t>
+          <t>2318.95</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2076.18</t>
+          <t>2191.01</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2061.60</t>
+          <t>2168.33</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3679.90</t>
+          <t>3746.15</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3241.24</t>
+          <t>3857.77</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>3279.37</t>
+          <t>3474.04</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2717.77</t>
+          <t>3333.56</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2026.44</t>
+          <t>2429.33</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2014.60</t>
+          <t>2415.90</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2174.62</t>
+          <t>2273.73</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2160.21</t>
+          <t>2263.51</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4550.05</t>
+          <t>4492.26</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3829.19</t>
+          <t>4491.08</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3863.63</t>
+          <t>3996.12</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3056.00</t>
+          <t>3786.25</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2248.57</t>
+          <t>2758.41</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2219.10</t>
+          <t>2732.87</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2661.66</t>
+          <t>2847.40</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2660.98</t>
+          <t>2851.38</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2872.20</t>
+          <t>2859.07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2232.17</t>
+          <t>2747.72</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>464.28</t>
+          <t>680.64</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2202.79</t>
+          <t>2790.07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1552.62</t>
+          <t>1970.94</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1553.98</t>
+          <t>1975.61</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2078.13</t>
+          <t>2128.82</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2121.25</t>
+          <t>2183.43</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3545.91</t>
+          <t>3547.73</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2889.71</t>
+          <t>3520.58</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2975.01</t>
+          <t>2893.19</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2265.47</t>
+          <t>2743.76</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1927.06</t>
+          <t>2174.32</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1913.31</t>
+          <t>2158.27</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2114.42</t>
+          <t>2088.06</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2108.53</t>
+          <t>2076.26</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3602.74</t>
+          <t>3595.54</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2912.72</t>
+          <t>3577.00</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>3005.85</t>
+          <t>2907.49</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2292.69</t>
+          <t>2783.45</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1947.57</t>
+          <t>2202.23</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1933.84</t>
+          <t>2186.18</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2151.27</t>
+          <t>2120.42</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2140.69</t>
+          <t>2107.51</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3638.58</t>
+          <t>3622.82</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2922.75</t>
+          <t>3610.40</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>3022.93</t>
+          <t>2932.32</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2301.71</t>
+          <t>2796.34</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1957.19</t>
+          <t>2221.51</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1915.62</t>
+          <t>2205.48</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2171.09</t>
+          <t>2148.22</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2159.18</t>
+          <t>2132.18</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3655.27</t>
+          <t>3646.63</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2926.69</t>
+          <t>3639.44</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>3023.15</t>
+          <t>2953.12</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2304.62</t>
+          <t>2790.57</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1814.31</t>
+          <t>2227.91</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1801.48</t>
+          <t>2214.14</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2182.79</t>
+          <t>2175.27</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2167.96</t>
+          <t>2157.76</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3657.24</t>
+          <t>3667.89</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2930.09</t>
+          <t>3662.37</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>3079.29</t>
+          <t>3068.59</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2307.49</t>
+          <t>2811.58</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1816.38</t>
+          <t>2240.30</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1803.58</t>
+          <t>2226.53</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2189.79</t>
+          <t>2183.15</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2175.51</t>
+          <t>2168.56</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3659.81</t>
+          <t>3684.95</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2934.66</t>
+          <t>3684.35</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>3180.25</t>
+          <t>3163.87</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2311.42</t>
+          <t>2905.67</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1819.57</t>
+          <t>2250.67</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1806.79</t>
+          <t>2236.90</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2203.86</t>
+          <t>2188.12</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2190.11</t>
+          <t>2173.08</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3683.99</t>
+          <t>3707.59</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2945.64</t>
+          <t>3711.07</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>3285.53</t>
+          <t>3249.39</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2380.75</t>
+          <t>3005.11</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1829.28</t>
+          <t>2267.15</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1818.99</t>
+          <t>2253.45</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2223.34</t>
+          <t>2203.49</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2210.05</t>
+          <t>2188.32</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3792.25</t>
+          <t>3777.59</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2820.75</t>
+          <t>3815.28</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>3492.02</t>
+          <t>3431.16</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2392.42</t>
+          <t>3209.68</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1897.78</t>
+          <t>2345.96</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1885.21</t>
+          <t>2332.28</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2312.17</t>
+          <t>2290.69</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2299.81</t>
+          <t>2275.88</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4611.44</t>
+          <t>4620.11</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3361.78</t>
+          <t>4408.17</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>4008.64</t>
+          <t>4027.92</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2715.05</t>
+          <t>3672.15</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2225.01</t>
+          <t>2723.24</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2252.74</t>
+          <t>2694.72</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2860.41</t>
+          <t>2865.36</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2863.62</t>
+          <t>2871.17</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1731.26</t>
+          <t>2451.65</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>137.45</t>
+          <t>2475.16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>34.59</t>
+          <t>543.82</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>136.38</t>
+          <t>2360.75</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>147.87</t>
+          <t>1699.92</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>147.57</t>
+          <t>1703.83</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1192.93</t>
+          <t>1775.39</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1250.75</t>
+          <t>1820.09</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2334.96</t>
+          <t>3047.35</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2348.18</t>
+          <t>3133.87</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1901.95</t>
+          <t>2514.60</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1353.42</t>
+          <t>2516.18</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1415.28</t>
+          <t>1891.37</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1404.15</t>
+          <t>1877.98</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1245.25</t>
+          <t>1714.35</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1245.18</t>
+          <t>1705.50</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2343.77</t>
+          <t>3084.08</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2413.19</t>
+          <t>3133.60</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1833.02</t>
+          <t>2508.61</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1911.58</t>
+          <t>2555.89</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1422.14</t>
+          <t>1906.53</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1411.66</t>
+          <t>1896.86</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1262.14</t>
+          <t>1741.76</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1252.81</t>
+          <t>1730.35</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2347.77</t>
+          <t>3115.60</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2416.92</t>
+          <t>3165.04</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1832.93</t>
+          <t>2534.31</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1916.61</t>
+          <t>2586.87</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1430.10</t>
+          <t>1927.37</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1419.61</t>
+          <t>1914.21</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1273.19</t>
+          <t>1765.06</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1263.08</t>
+          <t>1752.14</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2362.28</t>
+          <t>3142.11</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2422.78</t>
+          <t>3196.78</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1834.11</t>
+          <t>2556.93</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1920.60</t>
+          <t>2606.51</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1437.12</t>
+          <t>1941.93</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1426.63</t>
+          <t>1934.77</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1283.76</t>
+          <t>1780.03</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1273.42</t>
+          <t>1770.14</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2374.63</t>
+          <t>3164.95</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2428.51</t>
+          <t>3224.95</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1862.66</t>
+          <t>2661.59</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>1924.53</t>
+          <t>2636.21</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1443.30</t>
+          <t>1960.48</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1432.79</t>
+          <t>1947.52</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1293.38</t>
+          <t>1796.76</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1282.94</t>
+          <t>1787.06</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2387.61</t>
+          <t>3185.94</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2434.38</t>
+          <t>3251.13</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1884.07</t>
+          <t>2756.87</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1399.86</t>
+          <t>2732.11</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1449.55</t>
+          <t>1974.36</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1439.03</t>
+          <t>1966.72</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1302.51</t>
+          <t>1811.23</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1291.97</t>
+          <t>1804.37</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2401.15</t>
+          <t>3210.76</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2443.04</t>
+          <t>3288.08</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1901.44</t>
+          <t>2857.14</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>836.42</t>
+          <t>2828.53</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1460.96</t>
+          <t>2001.90</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1453.02</t>
+          <t>1992.72</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1315.93</t>
+          <t>1827.89</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1305.30</t>
+          <t>1821.59</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2486.94</t>
+          <t>3318.97</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2510.70</t>
+          <t>3385.93</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1976.65</t>
+          <t>3034.68</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>1051.74</t>
+          <t>2954.24</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1533.74</t>
+          <t>2105.34</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1523.18</t>
+          <t>2090.77</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1383.12</t>
+          <t>1913.96</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1374.66</t>
+          <t>1900.85</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2942.84</t>
+          <t>3628.53</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>2622.09</t>
+          <t>3756.20</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2398.53</t>
+          <t>3421.55</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>2122.38</t>
+          <t>3354.00</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1817.84</t>
+          <t>2412.50</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1798.09</t>
+          <t>2380.16</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1726.41</t>
+          <t>2351.96</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1726.51</t>
+          <t>2352.42</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2872.20</t>
+          <t>2859.07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2512.18</t>
+          <t>2797.79</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1066.27</t>
+          <t>1541.30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2499.26</t>
+          <t>2860.94</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1730.86</t>
+          <t>1993.28</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1734.00</t>
+          <t>1998.02</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2078.13</t>
+          <t>2160.36</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2121.25</t>
+          <t>2197.30</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3545.91</t>
+          <t>3571.04</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3227.13</t>
+          <t>3581.03</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2975.01</t>
+          <t>2900.29</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2546.25</t>
+          <t>2818.93</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1982.72</t>
+          <t>2230.74</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1970.18</t>
+          <t>2216.71</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2114.42</t>
+          <t>2100.76</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2108.53</t>
+          <t>2090.00</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3602.74</t>
+          <t>3626.28</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3244.05</t>
+          <t>3644.74</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3005.85</t>
+          <t>2924.66</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2568.72</t>
+          <t>2859.40</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1993.23</t>
+          <t>2257.50</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1980.89</t>
+          <t>2243.61</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2151.27</t>
+          <t>2131.40</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2140.69</t>
+          <t>2117.51</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3638.58</t>
+          <t>3662.00</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3250.38</t>
+          <t>3684.13</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>3022.93</t>
+          <t>2940.60</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2572.74</t>
+          <t>2880.38</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1998.93</t>
+          <t>2277.46</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1986.65</t>
+          <t>2264.85</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2171.09</t>
+          <t>2148.22</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2159.18</t>
+          <t>2132.18</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3655.27</t>
+          <t>3680.30</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3250.71</t>
+          <t>3719.70</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>3023.15</t>
+          <t>2957.86</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2570.70</t>
+          <t>2899.68</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2001.47</t>
+          <t>2268.23</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1989.14</t>
+          <t>2280.70</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2182.79</t>
+          <t>2175.27</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2167.96</t>
+          <t>2157.76</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3657.24</t>
+          <t>3695.48</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3218.79</t>
+          <t>3752.53</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>3079.29</t>
+          <t>3069.58</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2569.66</t>
+          <t>2920.84</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2002.71</t>
+          <t>2282.74</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1990.50</t>
+          <t>2268.99</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2189.79</t>
+          <t>2183.15</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2175.51</t>
+          <t>2168.56</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3659.81</t>
+          <t>3712.72</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3236.57</t>
+          <t>3779.75</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>3180.25</t>
+          <t>3171.46</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2546.82</t>
+          <t>3018.25</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1956.73</t>
+          <t>2314.23</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1956.54</t>
+          <t>2300.35</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2203.86</t>
+          <t>2188.12</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2190.11</t>
+          <t>2173.08</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3683.99</t>
+          <t>3734.98</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3250.26</t>
+          <t>3801.65</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>3285.53</t>
+          <t>3276.98</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2628.31</t>
+          <t>3118.59</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1961.34</t>
+          <t>2332.80</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1972.61</t>
+          <t>2318.95</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2223.34</t>
+          <t>2203.49</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2210.05</t>
+          <t>2188.32</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3792.25</t>
+          <t>3856.65</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3340.51</t>
+          <t>3911.20</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3492.02</t>
+          <t>3474.04</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2794.54</t>
+          <t>3337.49</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2037.21</t>
+          <t>2429.33</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2038.66</t>
+          <t>2415.90</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2312.17</t>
+          <t>2290.69</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2299.81</t>
+          <t>2275.88</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4611.44</t>
+          <t>4674.88</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4016.49</t>
+          <t>4650.23</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>4008.64</t>
+          <t>4027.92</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3346.72</t>
+          <t>3792.14</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2452.17</t>
+          <t>2779.56</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2428.07</t>
+          <t>2741.94</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2860.41</t>
+          <t>2865.36</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2863.62</t>
+          <t>2871.17</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_RochesterTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_RochesterTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2805.30</t>
+          <t>2867.35</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2700.79</t>
+          <t>2320.40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>727.07</t>
+          <t>965.28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2742.87</t>
+          <t>2278.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1889.52</t>
+          <t>1543.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1894.08</t>
+          <t>1545.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2135.06</t>
+          <t>2177.90</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2177.97</t>
+          <t>2232.88</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3426.15</t>
+          <t>3576.28</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3502.63</t>
+          <t>3069.89</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2868.63</t>
+          <t>2994.08</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2742.69</t>
+          <t>2358.01</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2151.14</t>
+          <t>1925.28</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2123.58</t>
+          <t>1910.93</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2100.76</t>
+          <t>2096.35</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2090.00</t>
+          <t>2088.03</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3476.29</t>
+          <t>3613.33</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3542.27</t>
+          <t>3125.26</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2859.89</t>
+          <t>2999.12</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2783.22</t>
+          <t>2392.05</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2179.52</t>
+          <t>1942.55</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2165.50</t>
+          <t>1927.83</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2131.40</t>
+          <t>2129.84</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2117.51</t>
+          <t>2117.41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3511.03</t>
+          <t>3634.26</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3577.86</t>
+          <t>3150.75</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2875.79</t>
+          <t>3019.79</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2806.37</t>
+          <t>2513.58</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2199.51</t>
+          <t>1925.33</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2185.49</t>
+          <t>1851.67</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2144.66</t>
+          <t>2204.33</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2130.96</t>
+          <t>2184.46</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3538.16</t>
+          <t>3652.11</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3602.42</t>
+          <t>3169.04</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2894.25</t>
+          <t>3031.97</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2821.96</t>
+          <t>2429.69</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2199.51</t>
+          <t>1877.56</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>2183.50</t>
+          <t>1862.70</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>2125.99</t>
+          <t>2209.28</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2112.82</t>
+          <t>2199.84</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3560.96</t>
+          <t>3668.49</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3623.45</t>
+          <t>3186.61</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>3005.64</t>
+          <t>3055.41</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2845.75</t>
+          <t>2530.57</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>2209.08</t>
+          <t>1984.04</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>2193.56</t>
+          <t>1964.25</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>2119.14</t>
+          <t>2211.04</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>2105.55</t>
+          <t>2200.04</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3581.75</t>
+          <t>3685.67</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3638.17</t>
+          <t>3215.16</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>3107.53</t>
+          <t>3152.13</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2940.06</t>
+          <t>2452.19</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>2271.02</t>
+          <t>1986.19</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2256.90</t>
+          <t>1966.86</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>2128.80</t>
+          <t>2215.14</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>2114.12</t>
+          <t>2202.25</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3601.17</t>
+          <t>3707.21</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3657.01</t>
+          <t>3233.96</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>3209.92</t>
+          <t>3247.42</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>3040.28</t>
+          <t>2530.15</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>2287.05</t>
+          <t>1989.62</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>2273.03</t>
+          <t>1975.52</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>2144.11</t>
+          <t>2234.91</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>2129.04</t>
+          <t>2224.60</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3669.07</t>
+          <t>3803.21</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3764.67</t>
+          <t>3332.01</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>3399.02</t>
+          <t>3432.19</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>3255.61</t>
+          <t>2683.95</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>2364.23</t>
+          <t>2065.03</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>2350.36</t>
+          <t>2052.25</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2232.53</t>
+          <t>2326.72</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2217.86</t>
+          <t>2315.47</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4521.66</t>
+          <t>4531.24</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>4371.97</t>
+          <t>3971.48</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3907.66</t>
+          <t>3958.37</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>3637.42</t>
+          <t>3098.28</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2701.83</t>
+          <t>2315.42</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2667.18</t>
+          <t>2238.32</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2799.75</t>
+          <t>2845.20</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2802.43</t>
+          <t>2856.81</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2839.44</t>
+          <t>2878.87</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2745.91</t>
+          <t>2295.43</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>712.74</t>
+          <t>785.07</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2807.62</t>
+          <t>2466.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1938.75</t>
+          <t>1739.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1941.27</t>
+          <t>1738.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2113.31</t>
+          <t>2164.11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2154.74</t>
+          <t>2216.13</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3571.04</t>
+          <t>3633.38</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3541.15</t>
+          <t>3342.51</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2874.95</t>
+          <t>2940.37</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2799.02</t>
+          <t>2598.29</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2177.14</t>
+          <t>2023.16</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2172.38</t>
+          <t>2006.77</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2073.52</t>
+          <t>2144.23</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2061.68</t>
+          <t>2139.40</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3626.28</t>
+          <t>3674.08</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3583.59</t>
+          <t>3377.08</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2882.89</t>
+          <t>2947.61</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2840.02</t>
+          <t>2630.28</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2204.59</t>
+          <t>2041.20</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2190.82</t>
+          <t>2024.75</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2106.81</t>
+          <t>2166.45</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2092.32</t>
+          <t>2167.80</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3662.00</t>
+          <t>3696.39</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3612.83</t>
+          <t>3390.57</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2906.83</t>
+          <t>2973.99</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2866.83</t>
+          <t>2576.31</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2222.52</t>
+          <t>2020.60</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2208.76</t>
+          <t>1989.36</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2116.96</t>
+          <t>2180.94</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2101.80</t>
+          <t>2171.78</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3680.30</t>
+          <t>3707.88</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3635.67</t>
+          <t>3395.63</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2922.48</t>
+          <t>2990.83</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2889.38</t>
+          <t>2580.34</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2250.70</t>
+          <t>2011.08</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2235.19</t>
+          <t>1991.41</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>2120.07</t>
+          <t>2190.93</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2100.26</t>
+          <t>2181.46</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3695.48</t>
+          <t>3724.42</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3650.98</t>
+          <t>3399.83</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>3029.19</t>
+          <t>3019.70</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2907.99</t>
+          <t>2585.20</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2262.64</t>
+          <t>2013.72</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>2246.98</t>
+          <t>1994.14</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>2129.89</t>
+          <t>2201.55</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>2112.94</t>
+          <t>2189.06</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>3712.72</t>
+          <t>3756.87</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3669.52</t>
+          <t>3202.48</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>3133.28</t>
+          <t>3124.31</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2984.53</t>
+          <t>2606.76</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>2274.33</t>
+          <t>2017.96</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2258.83</t>
+          <t>1998.47</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>2148.16</t>
+          <t>2213.39</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>2130.10</t>
+          <t>2198.65</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>3734.98</t>
+          <t>3770.58</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3692.55</t>
+          <t>3217.59</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>3237.61</t>
+          <t>3223.08</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>3088.74</t>
+          <t>2632.95</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>2292.22</t>
+          <t>2028.01</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>2276.43</t>
+          <t>1988.72</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>2169.28</t>
+          <t>2228.55</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>2152.34</t>
+          <t>2219.58</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3856.65</t>
+          <t>3862.95</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3800.74</t>
+          <t>3308.92</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>3427.59</t>
+          <t>3411.77</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>3317.19</t>
+          <t>2787.62</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2371.10</t>
+          <t>2102.44</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2363.03</t>
+          <t>2062.26</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>2253.54</t>
+          <t>2311.56</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>2240.97</t>
+          <t>2298.51</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>4674.88</t>
+          <t>4725.23</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>4412.18</t>
+          <t>3723.25</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>3968.34</t>
+          <t>3959.03</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>3751.72</t>
+          <t>3022.90</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2745.45</t>
+          <t>2319.88</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2708.13</t>
+          <t>2290.97</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2799.69</t>
+          <t>2814.69</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2815.34</t>
+          <t>2828.37</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2808.11</t>
+          <t>2722.61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2761.34</t>
+          <t>2782.27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>576.10</t>
+          <t>614.98</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2810.74</t>
+          <t>2757.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1933.10</t>
+          <t>1923.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1934.84</t>
+          <t>1925.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2078.29</t>
+          <t>2043.40</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2125.95</t>
+          <t>2084.79</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3463.13</t>
+          <t>3462.99</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3581.03</t>
+          <t>3500.37</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2823.37</t>
+          <t>2820.82</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2793.31</t>
+          <t>2727.49</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2222.54</t>
+          <t>2070.59</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2208.28</t>
+          <t>2055.03</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2078.73</t>
+          <t>1994.32</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2065.53</t>
+          <t>1982.67</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3514.00</t>
+          <t>3502.77</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3644.74</t>
+          <t>3567.10</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2859.15</t>
+          <t>2842.90</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2852.18</t>
+          <t>2791.77</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2252.71</t>
+          <t>2114.01</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2238.26</t>
+          <t>2098.73</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2112.96</t>
+          <t>2021.14</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2099.25</t>
+          <t>2008.14</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3556.64</t>
+          <t>3532.34</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3684.13</t>
+          <t>3602.32</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2882.49</t>
+          <t>2890.62</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2880.38</t>
+          <t>2821.41</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2267.20</t>
+          <t>2154.04</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2252.78</t>
+          <t>2142.09</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2065.82</t>
+          <t>2038.34</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2048.88</t>
+          <t>2025.09</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>3585.14</t>
+          <t>3570.75</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3719.70</t>
+          <t>3624.77</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2904.40</t>
+          <t>2900.02</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2895.24</t>
+          <t>2846.73</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2259.55</t>
+          <t>2285.23</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>2242.28</t>
+          <t>2269.38</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>2077.67</t>
+          <t>2081.64</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>2066.68</t>
+          <t>2042.39</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3610.52</t>
+          <t>3566.94</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3752.53</t>
+          <t>3644.09</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>3019.89</t>
+          <t>2917.72</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2915.95</t>
+          <t>2960.59</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>2270.79</t>
+          <t>2290.69</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>2253.83</t>
+          <t>2273.23</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>2086.41</t>
+          <t>2088.31</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>2074.73</t>
+          <t>2075.01</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>3633.13</t>
+          <t>3585.31</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3779.75</t>
+          <t>3671.75</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>3122.80</t>
+          <t>3008.85</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3010.16</t>
+          <t>2989.19</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>2281.79</t>
+          <t>2297.89</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2264.21</t>
+          <t>2280.31</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>2096.02</t>
+          <t>2095.92</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>2083.54</t>
+          <t>2081.32</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>3662.35</t>
+          <t>3607.24</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3801.65</t>
+          <t>3772.94</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>3227.95</t>
+          <t>3101.62</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>3109.23</t>
+          <t>3081.58</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>2300.13</t>
+          <t>2311.65</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>2282.56</t>
+          <t>2295.47</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>2110.96</t>
+          <t>2110.77</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>2098.72</t>
+          <t>2099.06</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3789.94</t>
+          <t>3707.46</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3911.20</t>
+          <t>3814.46</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>3423.91</t>
+          <t>3292.06</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>3337.49</t>
+          <t>3271.92</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2402.15</t>
+          <t>2411.06</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2384.24</t>
+          <t>2393.23</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>2202.07</t>
+          <t>2203.21</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>2189.03</t>
+          <t>2188.12</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>4546.12</t>
+          <t>4481.69</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>4650.23</t>
+          <t>4447.42</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3951.19</t>
+          <t>3930.30</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3769.17</t>
+          <t>3632.73</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2779.56</t>
+          <t>2751.94</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2741.94</t>
+          <t>2714.96</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2760.99</t>
+          <t>2761.47</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2765.74</t>
+          <t>2778.21</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2731.23</t>
+          <t>2744.59</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2713.62</t>
+          <t>2619.05</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>543.82</t>
+          <t>368.16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2827.97</t>
+          <t>2603.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1937.91</t>
+          <t>1702.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1943.29</t>
+          <t>1705.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2030.65</t>
+          <t>2076.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2109.67</t>
+          <t>2126.76</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3365.72</t>
+          <t>3402.92</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3487.00</t>
+          <t>3496.45</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2784.84</t>
+          <t>2814.13</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2806.89</t>
+          <t>2723.05</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2167.01</t>
+          <t>2082.80</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2156.10</t>
+          <t>2066.68</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1968.45</t>
+          <t>2025.81</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1957.86</t>
+          <t>2015.33</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3410.11</t>
+          <t>3441.38</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3597.00</t>
+          <t>3553.67</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2786.32</t>
+          <t>2819.99</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2852.20</t>
+          <t>2780.49</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2197.18</t>
+          <t>2234.47</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2184.62</t>
+          <t>2220.04</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1997.15</t>
+          <t>2048.00</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1985.07</t>
+          <t>2036.30</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>3448.71</t>
+          <t>3468.00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3635.72</t>
+          <t>3585.54</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2808.18</t>
+          <t>2843.53</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2872.63</t>
+          <t>2805.16</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2214.95</t>
+          <t>2249.94</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2202.43</t>
+          <t>2239.99</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2017.16</t>
+          <t>2070.68</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2004.60</t>
+          <t>2057.34</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>3465.54</t>
+          <t>3488.82</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3662.86</t>
+          <t>3609.73</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2824.27</t>
+          <t>2861.66</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2890.27</t>
+          <t>2872.09</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2228.24</t>
+          <t>2267.34</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>2215.96</t>
+          <t>2252.12</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>2023.72</t>
+          <t>2083.05</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>2008.64</t>
+          <t>2069.50</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>3475.28</t>
+          <t>3507.13</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>3594.73</t>
+          <t>3628.93</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2930.79</t>
+          <t>2884.49</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2911.93</t>
+          <t>2886.42</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>2238.43</t>
+          <t>2278.47</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>2227.09</t>
+          <t>2017.97</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>2036.55</t>
+          <t>2094.40</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>2021.49</t>
+          <t>2079.71</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>3491.64</t>
+          <t>3524.22</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>3614.37</t>
+          <t>3646.77</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>3028.66</t>
+          <t>2957.99</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3012.54</t>
+          <t>2706.92</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>2246.78</t>
+          <t>2040.29</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2238.06</t>
+          <t>2026.52</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>2048.75</t>
+          <t>2105.32</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>2033.62</t>
+          <t>2090.47</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>3514.30</t>
+          <t>3545.02</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>3637.61</t>
+          <t>3669.81</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>3130.74</t>
+          <t>3051.73</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>3114.34</t>
+          <t>2791.94</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>2263.94</t>
+          <t>2053.97</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>2254.86</t>
+          <t>2040.12</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>2066.68</t>
+          <t>2120.90</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>2051.53</t>
+          <t>2110.61</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3614.89</t>
+          <t>3636.86</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3739.18</t>
+          <t>3786.13</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>3316.24</t>
+          <t>3231.73</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>3328.97</t>
+          <t>2966.64</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2352.43</t>
+          <t>2137.44</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2339.56</t>
+          <t>2123.90</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>2134.04</t>
+          <t>2201.17</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>2122.15</t>
+          <t>2186.36</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>4255.35</t>
+          <t>4341.58</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>4339.48</t>
+          <t>4428.21</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>3824.39</t>
+          <t>3660.86</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3792.14</t>
+          <t>3430.27</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2698.76</t>
+          <t>2540.08</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2680.37</t>
+          <t>2504.63</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2633.62</t>
+          <t>2637.65</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2637.90</t>
+          <t>2639.79</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2664.55</t>
+          <t>2218.16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2697.78</t>
+          <t>2286.74</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>866.83</t>
+          <t>193.54</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2832.75</t>
+          <t>2277.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1930.83</t>
+          <t>1553.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1935.54</t>
+          <t>1556.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1993.23</t>
+          <t>1599.14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2045.44</t>
+          <t>1650.79</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3297.64</t>
+          <t>2870.93</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3504.86</t>
+          <t>3030.69</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2734.59</t>
+          <t>2382.89</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2761.63</t>
+          <t>2374.96</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2153.72</t>
+          <t>1804.09</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2139.99</t>
+          <t>1792.27</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1910.77</t>
+          <t>1619.33</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1898.29</t>
+          <t>1612.84</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3336.43</t>
+          <t>2907.37</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3556.58</t>
+          <t>3067.27</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2752.79</t>
+          <t>2360.82</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2812.12</t>
+          <t>2409.41</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2170.29</t>
+          <t>1827.19</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2156.30</t>
+          <t>1815.67</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1941.57</t>
+          <t>1646.48</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1927.88</t>
+          <t>1636.11</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>3363.22</t>
+          <t>2931.18</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3585.02</t>
+          <t>3090.74</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2793.03</t>
+          <t>2375.61</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2845.41</t>
+          <t>2429.40</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2192.33</t>
+          <t>1842.43</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2178.34</t>
+          <t>1834.19</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1964.02</t>
+          <t>1662.41</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1950.06</t>
+          <t>1652.19</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3386.82</t>
+          <t>2949.47</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3607.91</t>
+          <t>3108.38</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2817.85</t>
+          <t>2390.11</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2867.31</t>
+          <t>2443.71</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2204.80</t>
+          <t>1856.81</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2196.13</t>
+          <t>1845.65</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1981.03</t>
+          <t>1674.55</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1965.16</t>
+          <t>1664.06</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>3408.55</t>
+          <t>2964.76</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3629.10</t>
+          <t>3123.06</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2934.31</t>
+          <t>2411.75</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2895.67</t>
+          <t>2458.99</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>2219.90</t>
+          <t>1866.16</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>2205.94</t>
+          <t>1855.01</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1994.00</t>
+          <t>1685.06</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1978.13</t>
+          <t>1673.68</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>3428.51</t>
+          <t>2978.77</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3648.41</t>
+          <t>3136.55</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>3037.96</t>
+          <t>2492.42</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2998.25</t>
+          <t>2487.81</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2234.00</t>
+          <t>1875.12</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2220.03</t>
+          <t>1863.77</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>2006.55</t>
+          <t>1694.19</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1990.68</t>
+          <t>1682.59</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>3452.40</t>
+          <t>2996.98</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3672.06</t>
+          <t>3154.55</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>3144.66</t>
+          <t>2572.29</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>3103.15</t>
+          <t>2568.04</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2252.98</t>
+          <t>1889.22</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2239.06</t>
+          <t>1877.99</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>2025.67</t>
+          <t>1708.24</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>2009.86</t>
+          <t>1699.67</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3548.59</t>
+          <t>3091.88</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3768.19</t>
+          <t>3251.26</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>3332.31</t>
+          <t>2735.50</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>3325.50</t>
+          <t>2731.12</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2341.16</t>
+          <t>1968.86</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2327.17</t>
+          <t>1957.71</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>2112.05</t>
+          <t>1785.08</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>2097.60</t>
+          <t>1774.30</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>4104.95</t>
+          <t>3616.61</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>4296.34</t>
+          <t>3779.45</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3771.93</t>
+          <t>3101.76</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3783.86</t>
+          <t>3107.12</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2719.64</t>
+          <t>2276.04</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2681.06</t>
+          <t>2246.42</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2589.71</t>
+          <t>2164.85</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2597.36</t>
+          <t>2168.19</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2614.67</t>
+          <t>2134.07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2660.57</t>
+          <t>2222.05</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>828.81</t>
+          <t>449.30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2713.88</t>
+          <t>2216.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1885.01</t>
+          <t>1509.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1889.60</t>
+          <t>1512.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1966.73</t>
+          <t>1533.37</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2007.03</t>
+          <t>1590.81</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3227.08</t>
+          <t>2746.01</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3423.94</t>
+          <t>2921.54</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2638.21</t>
+          <t>2299.57</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2677.77</t>
+          <t>2286.98</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2086.14</t>
+          <t>1725.39</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2072.33</t>
+          <t>1713.64</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1861.26</t>
+          <t>1528.39</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1848.79</t>
+          <t>1524.95</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3270.52</t>
+          <t>2739.29</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3467.10</t>
+          <t>2912.96</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2624.14</t>
+          <t>2219.91</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2714.49</t>
+          <t>2287.48</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2113.64</t>
+          <t>1727.54</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2099.80</t>
+          <t>1715.85</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1890.26</t>
+          <t>1535.87</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1876.73</t>
+          <t>1527.04</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>3304.72</t>
+          <t>2748.40</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>3500.68</t>
+          <t>2922.32</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2647.93</t>
+          <t>2222.31</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2736.97</t>
+          <t>2295.94</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2135.67</t>
+          <t>1734.23</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2121.84</t>
+          <t>1725.57</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1912.74</t>
+          <t>1544.98</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1899.02</t>
+          <t>1534.98</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>3332.85</t>
+          <t>2755.68</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>3528.29</t>
+          <t>2929.68</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2668.63</t>
+          <t>2228.52</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2755.28</t>
+          <t>2301.74</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2153.63</t>
+          <t>1742.33</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>2139.79</t>
+          <t>1730.92</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1930.85</t>
+          <t>1551.59</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1917.09</t>
+          <t>1543.53</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>3356.91</t>
+          <t>2761.95</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>3551.95</t>
+          <t>2936.06</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2774.46</t>
+          <t>2243.13</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2779.22</t>
+          <t>2309.66</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>2170.89</t>
+          <t>1746.97</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>2156.98</t>
+          <t>1735.55</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1939.07</t>
+          <t>1557.17</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1925.34</t>
+          <t>1552.72</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>3378.86</t>
+          <t>2733.20</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>3573.58</t>
+          <t>2904.94</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2871.66</t>
+          <t>2284.05</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2877.09</t>
+          <t>2300.66</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>2175.21</t>
+          <t>1748.56</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2161.40</t>
+          <t>1738.03</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1953.42</t>
+          <t>1569.30</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1939.68</t>
+          <t>1559.51</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>3404.44</t>
+          <t>2745.52</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>3599.03</t>
+          <t>2915.93</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2975.45</t>
+          <t>2352.81</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2977.79</t>
+          <t>2370.50</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>2194.34</t>
+          <t>1762.45</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>2180.56</t>
+          <t>1751.90</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1972.50</t>
+          <t>1582.99</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1958.79</t>
+          <t>1575.79</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>3507.02</t>
+          <t>2834.55</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>3697.68</t>
+          <t>3005.18</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>3164.92</t>
+          <t>2499.39</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>3190.76</t>
+          <t>2519.26</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>2275.98</t>
+          <t>1839.01</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>2262.15</t>
+          <t>1828.54</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>2053.09</t>
+          <t>1656.64</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>2039.43</t>
+          <t>1646.61</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3980.58</t>
+          <t>3305.36</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>4144.65</t>
+          <t>3464.79</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>3561.63</t>
+          <t>2808.22</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>3555.47</t>
+          <t>2838.39</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2638.94</t>
+          <t>2120.50</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2606.55</t>
+          <t>2091.47</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2491.04</t>
+          <t>1995.67</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2491.61</t>
+          <t>1997.29</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2574.47</t>
+          <t>1868.99</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2649.27</t>
+          <t>1928.76</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1074.22</t>
+          <t>491.39</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2765.06</t>
+          <t>1923.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1910.11</t>
+          <t>1289.10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1914.81</t>
+          <t>1294.43</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1962.58</t>
+          <t>1329.68</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2005.00</t>
+          <t>1399.09</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3099.34</t>
+          <t>2442.15</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3336.97</t>
+          <t>2578.48</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2597.30</t>
+          <t>2140.47</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2677.67</t>
+          <t>2046.79</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2106.45</t>
+          <t>1502.65</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2092.76</t>
+          <t>1505.19</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1853.23</t>
+          <t>1401.89</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1842.28</t>
+          <t>1397.39</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3127.90</t>
+          <t>2449.63</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3374.28</t>
+          <t>2584.14</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2591.87</t>
+          <t>2031.64</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2712.37</t>
+          <t>2066.75</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2124.37</t>
+          <t>1515.08</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2110.72</t>
+          <t>1511.56</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1870.90</t>
+          <t>1408.94</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1857.86</t>
+          <t>1411.63</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>3161.28</t>
+          <t>2458.98</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>3405.32</t>
+          <t>2593.18</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2615.88</t>
+          <t>2028.31</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2734.73</t>
+          <t>2076.85</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2143.15</t>
+          <t>1523.03</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2129.52</t>
+          <t>1518.59</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1891.22</t>
+          <t>1418.30</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1877.94</t>
+          <t>1421.24</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>3186.91</t>
+          <t>2467.27</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>3431.02</t>
+          <t>2600.88</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2636.39</t>
+          <t>2037.61</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2752.83</t>
+          <t>2085.52</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2158.56</t>
+          <t>1532.52</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>2144.94</t>
+          <t>1525.56</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1907.58</t>
+          <t>1425.86</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1894.27</t>
+          <t>1420.60</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>3210.28</t>
+          <t>2474.54</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>3453.06</t>
+          <t>2607.69</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2740.06</t>
+          <t>2055.34</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2776.94</t>
+          <t>2094.95</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>2171.76</t>
+          <t>1538.70</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>2158.15</t>
+          <t>1531.67</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1921.45</t>
+          <t>1432.38</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1908.13</t>
+          <t>1426.80</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>3231.55</t>
+          <t>2481.62</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>3473.29</t>
+          <t>2614.40</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2834.97</t>
+          <t>2116.54</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2870.19</t>
+          <t>2113.94</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>2184.24</t>
+          <t>1544.93</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2170.65</t>
+          <t>1537.74</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1934.46</t>
+          <t>1438.81</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1921.13</t>
+          <t>1432.64</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>3256.22</t>
+          <t>2493.34</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>3497.68</t>
+          <t>2625.99</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2935.22</t>
+          <t>2159.34</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2967.76</t>
+          <t>2166.55</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>2202.01</t>
+          <t>1556.07</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>2188.48</t>
+          <t>1548.73</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1952.26</t>
+          <t>1446.13</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1938.98</t>
+          <t>1445.46</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>3348.09</t>
+          <t>2575.90</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>3592.63</t>
+          <t>2709.10</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>3111.60</t>
+          <t>2250.73</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>3174.94</t>
+          <t>2278.43</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>2287.03</t>
+          <t>1623.97</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>2273.44</t>
+          <t>1616.63</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>2032.25</t>
+          <t>1505.00</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>2019.02</t>
+          <t>1508.13</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3817.24</t>
+          <t>2977.74</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>4048.69</t>
+          <t>3105.10</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>3452.76</t>
+          <t>2620.56</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>3518.62</t>
+          <t>2657.67</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2589.69</t>
+          <t>1927.00</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2561.74</t>
+          <t>1910.96</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2430.85</t>
+          <t>1849.45</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2431.83</t>
+          <t>1853.69</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2451.65</t>
+          <t>2011.08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2475.16</t>
+          <t>2036.93</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1302.65</t>
+          <t>741.81</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2360.75</t>
+          <t>2000.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1699.92</t>
+          <t>1388.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1703.83</t>
+          <t>1390.82</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1775.39</t>
+          <t>1445.93</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1820.09</t>
+          <t>1502.19</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3047.35</t>
+          <t>2594.65</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3133.87</t>
+          <t>2655.54</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2514.60</t>
+          <t>2140.53</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2516.18</t>
+          <t>2057.43</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1891.37</t>
+          <t>1590.09</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1877.98</t>
+          <t>1577.00</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1714.35</t>
+          <t>1420.54</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1705.50</t>
+          <t>1415.17</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>3084.08</t>
+          <t>2605.38</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>3133.60</t>
+          <t>2616.23</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2508.61</t>
+          <t>2086.91</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2555.89</t>
+          <t>2056.86</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1906.53</t>
+          <t>1569.69</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1896.86</t>
+          <t>1557.47</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1741.76</t>
+          <t>1407.57</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1730.35</t>
+          <t>1398.08</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>3115.60</t>
+          <t>2616.97</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3165.04</t>
+          <t>2621.10</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2534.31</t>
+          <t>2094.10</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2586.87</t>
+          <t>2049.72</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1927.37</t>
+          <t>1574.50</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1914.21</t>
+          <t>1565.72</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1765.06</t>
+          <t>1413.71</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1752.14</t>
+          <t>1403.28</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>3142.11</t>
+          <t>2627.10</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>3196.78</t>
+          <t>2624.82</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2556.93</t>
+          <t>2102.42</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2606.51</t>
+          <t>2046.59</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1941.93</t>
+          <t>1579.70</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1934.77</t>
+          <t>1568.33</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1780.03</t>
+          <t>1421.31</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1770.14</t>
+          <t>1410.82</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>3164.95</t>
+          <t>2635.96</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>3224.95</t>
+          <t>2628.52</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2661.59</t>
+          <t>2103.74</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2636.21</t>
+          <t>2049.51</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1960.48</t>
+          <t>1580.04</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1947.52</t>
+          <t>1568.74</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1796.76</t>
+          <t>1428.14</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1787.06</t>
+          <t>1417.40</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>3185.94</t>
+          <t>2644.54</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>3251.13</t>
+          <t>2632.96</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2756.87</t>
+          <t>2178.59</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2732.11</t>
+          <t>2075.89</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1974.36</t>
+          <t>1582.32</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1966.72</t>
+          <t>1570.96</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1811.23</t>
+          <t>1434.89</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1804.37</t>
+          <t>1423.85</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>3210.76</t>
+          <t>2657.76</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>3288.08</t>
+          <t>2643.03</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2857.14</t>
+          <t>2237.09</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2828.53</t>
+          <t>2131.74</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>2001.90</t>
+          <t>1591.04</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1992.72</t>
+          <t>1579.60</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1827.89</t>
+          <t>1446.19</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1821.59</t>
+          <t>1438.36</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>3318.97</t>
+          <t>2745.59</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>3385.93</t>
+          <t>2729.83</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>3034.68</t>
+          <t>2392.75</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2954.24</t>
+          <t>2260.57</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>2105.34</t>
+          <t>1661.10</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>2090.77</t>
+          <t>1649.63</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1913.96</t>
+          <t>1518.49</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1900.85</t>
+          <t>1507.49</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3628.53</t>
+          <t>3155.28</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3756.20</t>
+          <t>3149.11</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>3421.55</t>
+          <t>2810.67</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>3354.00</t>
+          <t>2686.44</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2412.50</t>
+          <t>1924.73</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2380.16</t>
+          <t>1912.88</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2351.96</t>
+          <t>1930.23</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2352.42</t>
+          <t>1935.31</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2660.00</t>
+          <t>2090.64</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2718.27</t>
+          <t>2071.17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1350.57</t>
+          <t>929.61</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2793.39</t>
+          <t>2102.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1929.80</t>
+          <t>1375.37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1934.89</t>
+          <t>1380.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2006.32</t>
+          <t>1514.29</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2046.38</t>
+          <t>1586.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3218.84</t>
+          <t>2663.92</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3433.83</t>
+          <t>2626.11</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2666.16</t>
+          <t>2255.92</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2699.95</t>
+          <t>2091.94</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2123.43</t>
+          <t>1523.75</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2109.99</t>
+          <t>1520.68</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1896.06</t>
+          <t>1465.34</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1884.94</t>
+          <t>1464.51</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>3247.99</t>
+          <t>2670.57</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3479.10</t>
+          <t>2571.36</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2652.47</t>
+          <t>2142.81</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2734.06</t>
+          <t>2033.54</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2148.98</t>
+          <t>1510.85</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2135.51</t>
+          <t>1506.16</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1921.73</t>
+          <t>1444.06</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1908.44</t>
+          <t>1437.27</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>3279.91</t>
+          <t>2670.38</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3515.70</t>
+          <t>2571.50</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2671.23</t>
+          <t>2149.68</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2759.77</t>
+          <t>2027.10</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2170.64</t>
+          <t>1517.67</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2157.18</t>
+          <t>1513.85</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1943.61</t>
+          <t>1455.10</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1929.99</t>
+          <t>1446.78</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>3310.79</t>
+          <t>2671.60</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3543.03</t>
+          <t>2572.96</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2689.49</t>
+          <t>2158.66</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2780.78</t>
+          <t>2032.48</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2188.20</t>
+          <t>1526.86</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2174.74</t>
+          <t>1520.59</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1961.29</t>
+          <t>1464.11</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1947.58</t>
+          <t>1455.29</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3337.19</t>
+          <t>2674.89</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3559.73</t>
+          <t>2574.31</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2796.81</t>
+          <t>2176.38</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2807.45</t>
+          <t>2048.96</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2203.74</t>
+          <t>1532.94</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2190.28</t>
+          <t>1526.62</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1976.34</t>
+          <t>1471.72</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1962.58</t>
+          <t>1462.58</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>3361.18</t>
+          <t>2677.93</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3575.50</t>
+          <t>2576.33</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2895.28</t>
+          <t>2254.73</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2906.43</t>
+          <t>2060.33</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>2218.25</t>
+          <t>1539.07</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2204.77</t>
+          <t>1532.62</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1990.41</t>
+          <t>1478.77</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1976.62</t>
+          <t>1469.15</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>3388.45</t>
+          <t>2685.10</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>3597.47</t>
+          <t>2583.51</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2999.37</t>
+          <t>2337.24</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>3006.90</t>
+          <t>2118.10</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>2238.48</t>
+          <t>1550.15</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>2225.02</t>
+          <t>1543.51</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>2009.24</t>
+          <t>1490.70</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1995.48</t>
+          <t>1484.03</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>3485.46</t>
+          <t>2766.19</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>3703.63</t>
+          <t>2682.41</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>3180.58</t>
+          <t>2491.98</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>3216.86</t>
+          <t>2229.92</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>2321.40</t>
+          <t>1620.52</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>2307.93</t>
+          <t>1613.86</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>2090.06</t>
+          <t>1566.10</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>2076.32</t>
+          <t>1556.02</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3966.55</t>
+          <t>3255.90</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>4181.77</t>
+          <t>3161.29</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>3549.69</t>
+          <t>2903.72</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>3553.94</t>
+          <t>2598.25</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2615.46</t>
+          <t>1908.00</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2585.87</t>
+          <t>1881.87</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2500.75</t>
+          <t>2001.40</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2501.03</t>
+          <t>2008.85</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2809.59</t>
+          <t>2520.10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2793.57</t>
+          <t>2393.79</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1541.30</t>
+          <t>1293.94</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2848.74</t>
+          <t>2338.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1970.09</t>
+          <t>1576.96</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1973.32</t>
+          <t>1581.11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2160.36</t>
+          <t>1803.45</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2186.99</t>
+          <t>1864.93</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3413.96</t>
+          <t>3186.65</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3554.30</t>
+          <t>3133.53</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2900.29</t>
+          <t>2622.48</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2792.01</t>
+          <t>2377.54</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2192.78</t>
+          <t>1797.51</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2177.49</t>
+          <t>1784.45</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2067.06</t>
+          <t>1782.41</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2049.48</t>
+          <t>1776.49</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3465.37</t>
+          <t>3197.95</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3585.58</t>
+          <t>3155.32</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2881.94</t>
+          <t>2565.06</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2830.02</t>
+          <t>2404.95</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2220.16</t>
+          <t>1816.75</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2206.23</t>
+          <t>1803.51</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2083.66</t>
+          <t>1801.80</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2080.46</t>
+          <t>1792.77</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3500.36</t>
+          <t>3205.61</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3610.36</t>
+          <t>3171.88</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2893.96</t>
+          <t>2557.21</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2852.88</t>
+          <t>2413.09</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2236.44</t>
+          <t>1827.80</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2222.55</t>
+          <t>1817.40</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2097.56</t>
+          <t>1815.13</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2087.70</t>
+          <t>1805.45</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3515.95</t>
+          <t>3213.46</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3631.98</t>
+          <t>3184.80</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2902.26</t>
+          <t>2559.12</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2877.83</t>
+          <t>2420.25</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2249.92</t>
+          <t>1839.75</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2236.02</t>
+          <t>1827.28</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2108.49</t>
+          <t>1810.53</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2097.72</t>
+          <t>1815.15</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3541.10</t>
+          <t>3216.47</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3646.82</t>
+          <t>3196.38</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>3004.65</t>
+          <t>2571.43</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2898.28</t>
+          <t>2430.98</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2259.27</t>
+          <t>1846.68</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2247.50</t>
+          <t>1834.73</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2120.40</t>
+          <t>1806.77</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2107.40</t>
+          <t>1807.41</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3565.00</t>
+          <t>3223.75</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3664.92</t>
+          <t>3207.49</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>3091.98</t>
+          <t>2646.58</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2991.61</t>
+          <t>2457.25</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2270.40</t>
+          <t>1855.12</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2256.53</t>
+          <t>1843.09</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2127.32</t>
+          <t>1808.71</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2119.35</t>
+          <t>1803.38</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3591.59</t>
+          <t>3235.96</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3685.67</t>
+          <t>3223.35</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>3192.72</t>
+          <t>2724.67</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>3095.13</t>
+          <t>2539.26</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2282.48</t>
+          <t>1867.75</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2273.17</t>
+          <t>1855.95</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>2139.20</t>
+          <t>1818.11</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>2127.03</t>
+          <t>1812.07</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3689.96</t>
+          <t>3341.99</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3786.18</t>
+          <t>3326.12</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>3375.97</t>
+          <t>2897.76</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>3313.00</t>
+          <t>2700.77</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2374.24</t>
+          <t>1947.59</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2360.58</t>
+          <t>1937.37</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2218.34</t>
+          <t>1899.12</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2206.28</t>
+          <t>1887.77</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4415.54</t>
+          <t>4062.58</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>4400.92</t>
+          <t>4029.79</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3951.40</t>
+          <t>3335.38</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3764.32</t>
+          <t>3134.30</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2761.73</t>
+          <t>2308.93</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2725.67</t>
+          <t>2274.41</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2731.82</t>
+          <t>2414.03</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2745.25</t>
+          <t>2419.33</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2848.68</t>
+          <t>2750.67</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2797.79</t>
+          <t>2531.31</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1301.86</t>
+          <t>1022.53</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2860.94</t>
+          <t>2479.53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1993.28</t>
+          <t>1682.03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1998.02</t>
+          <t>1684.14</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2146.89</t>
+          <t>1981.19</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2197.30</t>
+          <t>2038.55</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3473.50</t>
+          <t>3511.14</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3578.94</t>
+          <t>3321.26</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2885.88</t>
+          <t>2859.54</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2818.93</t>
+          <t>2528.90</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2230.74</t>
+          <t>1921.71</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2216.71</t>
+          <t>1908.35</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2072.35</t>
+          <t>1960.88</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2067.47</t>
+          <t>1955.66</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3517.23</t>
+          <t>3523.32</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3625.42</t>
+          <t>3365.24</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2924.66</t>
+          <t>2826.66</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2859.40</t>
+          <t>2564.50</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2257.50</t>
+          <t>1951.81</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2243.61</t>
+          <t>1935.32</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2104.01</t>
+          <t>1984.41</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2091.66</t>
+          <t>1974.15</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3552.36</t>
+          <t>3535.01</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3653.29</t>
+          <t>3389.52</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2940.60</t>
+          <t>2831.75</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2879.52</t>
+          <t>2588.99</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2277.46</t>
+          <t>1965.50</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2264.85</t>
+          <t>1956.78</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2123.63</t>
+          <t>1996.77</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2112.41</t>
+          <t>1986.43</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3581.78</t>
+          <t>3546.89</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3681.14</t>
+          <t>3400.43</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2957.86</t>
+          <t>2837.02</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2899.68</t>
+          <t>2603.17</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2268.23</t>
+          <t>1991.01</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2280.70</t>
+          <t>1970.87</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2125.70</t>
+          <t>2004.42</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2111.67</t>
+          <t>1994.99</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3606.62</t>
+          <t>3557.30</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3705.02</t>
+          <t>3409.86</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>3069.58</t>
+          <t>2853.20</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2920.84</t>
+          <t>2614.75</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2282.74</t>
+          <t>1995.32</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2268.99</t>
+          <t>1990.07</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2147.06</t>
+          <t>2002.90</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2124.79</t>
+          <t>1993.92</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3629.12</t>
+          <t>3568.08</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3725.92</t>
+          <t>3422.76</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>3171.46</t>
+          <t>2941.02</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3018.25</t>
+          <t>2644.93</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2314.23</t>
+          <t>1988.51</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2300.35</t>
+          <t>1983.50</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2165.33</t>
+          <t>2009.75</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2143.82</t>
+          <t>1997.49</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3647.78</t>
+          <t>3584.71</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3751.80</t>
+          <t>3443.20</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>3276.98</t>
+          <t>3028.39</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>3118.59</t>
+          <t>2727.29</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2332.80</t>
+          <t>1998.03</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2318.95</t>
+          <t>1984.97</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2191.01</t>
+          <t>2022.44</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2168.33</t>
+          <t>2013.10</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3746.15</t>
+          <t>3686.03</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3857.77</t>
+          <t>3546.43</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>3474.04</t>
+          <t>3206.74</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>3333.56</t>
+          <t>2902.79</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2429.33</t>
+          <t>2077.68</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2415.90</t>
+          <t>2065.41</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2273.73</t>
+          <t>2107.27</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2263.51</t>
+          <t>2094.61</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4492.26</t>
+          <t>4469.22</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>4491.08</t>
+          <t>4275.07</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3996.12</t>
+          <t>3722.21</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3786.25</t>
+          <t>3346.01</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2758.41</t>
+          <t>2472.70</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2732.87</t>
+          <t>2440.33</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2847.40</t>
+          <t>2644.74</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2851.38</t>
+          <t>2650.78</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2859.07</t>
+          <t>2913.41</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2747.72</t>
+          <t>2624.84</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>680.64</t>
+          <t>721.06</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2790.07</t>
+          <t>2636.40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1970.94</t>
+          <t>1837.32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1975.61</t>
+          <t>1674.94</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2128.82</t>
+          <t>2215.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2183.43</t>
+          <t>2268.67</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3547.73</t>
+          <t>3639.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3520.58</t>
+          <t>3099.31</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2893.19</t>
+          <t>3017.48</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2743.76</t>
+          <t>2437.25</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2174.32</t>
+          <t>1896.98</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2158.27</t>
+          <t>1883.98</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2088.06</t>
+          <t>2181.93</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2076.26</t>
+          <t>2168.55</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3595.54</t>
+          <t>3666.40</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3577.00</t>
+          <t>3118.98</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2907.49</t>
+          <t>2995.71</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2783.45</t>
+          <t>2459.23</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2202.23</t>
+          <t>1905.67</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2186.18</t>
+          <t>1892.47</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2120.42</t>
+          <t>2205.16</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2107.51</t>
+          <t>2195.15</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3622.82</t>
+          <t>3680.30</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3610.40</t>
+          <t>3461.99</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2932.32</t>
+          <t>3004.85</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2796.34</t>
+          <t>2464.91</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2221.51</t>
+          <t>2118.10</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2205.48</t>
+          <t>2111.07</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2148.22</t>
+          <t>2212.66</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2132.18</t>
+          <t>2203.91</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3646.63</t>
+          <t>3697.55</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3639.44</t>
+          <t>3472.37</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2953.12</t>
+          <t>3018.75</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2790.57</t>
+          <t>2467.54</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2227.91</t>
+          <t>2126.54</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2214.14</t>
+          <t>2116.49</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2175.27</t>
+          <t>2227.39</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2157.76</t>
+          <t>2216.96</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3667.89</t>
+          <t>3712.15</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3662.37</t>
+          <t>3483.43</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>3068.59</t>
+          <t>3042.56</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2811.58</t>
+          <t>2766.95</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2240.30</t>
+          <t>2132.17</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2226.53</t>
+          <t>2119.85</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2183.15</t>
+          <t>2228.28</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2168.56</t>
+          <t>2215.69</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3684.95</t>
+          <t>3725.60</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3684.35</t>
+          <t>3495.07</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>3163.87</t>
+          <t>3148.12</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2905.67</t>
+          <t>2792.96</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2250.67</t>
+          <t>2139.20</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2236.90</t>
+          <t>2126.48</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2188.12</t>
+          <t>2235.71</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2173.08</t>
+          <t>2221.48</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3707.59</t>
+          <t>3743.76</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3711.07</t>
+          <t>3512.52</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>3249.39</t>
+          <t>3246.65</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>3005.11</t>
+          <t>2880.68</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2267.15</t>
+          <t>2153.27</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2253.45</t>
+          <t>2140.55</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2203.49</t>
+          <t>2253.05</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2188.32</t>
+          <t>2243.16</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3777.59</t>
+          <t>3849.59</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3815.28</t>
+          <t>3618.21</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>3431.16</t>
+          <t>3435.86</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>3209.68</t>
+          <t>3063.57</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2345.96</t>
+          <t>2244.88</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2332.28</t>
+          <t>2232.68</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2290.69</t>
+          <t>2337.30</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2275.88</t>
+          <t>2323.40</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4620.11</t>
+          <t>4630.99</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>4408.17</t>
+          <t>4165.27</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>4027.92</t>
+          <t>3868.12</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>3672.15</t>
+          <t>3189.02</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2723.24</t>
+          <t>2345.33</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2694.72</t>
+          <t>2315.57</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2865.36</t>
+          <t>2817.96</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2871.17</t>
+          <t>2826.07</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2451.65</t>
+          <t>1868.99</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2475.16</t>
+          <t>1928.76</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>543.82</t>
+          <t>193.54</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2360.75</t>
+          <t>1923.94</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1699.92</t>
+          <t>1289.10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1703.83</t>
+          <t>1294.43</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1775.39</t>
+          <t>1329.68</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1820.09</t>
+          <t>1399.09</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3047.35</t>
+          <t>2442.15</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3133.87</t>
+          <t>2578.48</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2514.60</t>
+          <t>2140.47</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2516.18</t>
+          <t>2046.79</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1891.37</t>
+          <t>1502.65</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1877.98</t>
+          <t>1505.19</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1714.35</t>
+          <t>1401.89</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1705.50</t>
+          <t>1397.39</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>3084.08</t>
+          <t>2449.63</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>3133.60</t>
+          <t>2571.36</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2508.61</t>
+          <t>2031.64</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2555.89</t>
+          <t>2033.54</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1906.53</t>
+          <t>1510.85</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1896.86</t>
+          <t>1506.16</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1741.76</t>
+          <t>1407.57</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1730.35</t>
+          <t>1398.08</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>3115.60</t>
+          <t>2458.98</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>3165.04</t>
+          <t>2571.50</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2534.31</t>
+          <t>2028.31</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2586.87</t>
+          <t>2027.10</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1927.37</t>
+          <t>1517.67</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1914.21</t>
+          <t>1513.85</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1765.06</t>
+          <t>1413.71</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1752.14</t>
+          <t>1403.28</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>3142.11</t>
+          <t>2467.27</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>3196.78</t>
+          <t>2572.96</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2556.93</t>
+          <t>2037.61</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2606.51</t>
+          <t>2032.48</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1941.93</t>
+          <t>1526.86</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1934.77</t>
+          <t>1520.59</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1780.03</t>
+          <t>1421.31</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1770.14</t>
+          <t>1410.82</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>3164.95</t>
+          <t>2474.54</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>3224.95</t>
+          <t>2574.31</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2661.59</t>
+          <t>2055.34</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2636.21</t>
+          <t>2048.96</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1960.48</t>
+          <t>1532.94</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1947.52</t>
+          <t>1526.62</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1796.76</t>
+          <t>1428.14</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1787.06</t>
+          <t>1417.40</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>3185.94</t>
+          <t>2481.62</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>3251.13</t>
+          <t>2576.33</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>2756.87</t>
+          <t>2116.54</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2732.11</t>
+          <t>2060.33</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1974.36</t>
+          <t>1539.07</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1966.72</t>
+          <t>1532.62</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1811.23</t>
+          <t>1434.89</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1804.37</t>
+          <t>1423.85</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>3210.76</t>
+          <t>2493.34</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>3288.08</t>
+          <t>2583.51</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2857.14</t>
+          <t>2159.34</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2828.53</t>
+          <t>2118.10</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>2001.90</t>
+          <t>1550.15</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1992.72</t>
+          <t>1543.51</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1827.89</t>
+          <t>1446.13</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1821.59</t>
+          <t>1438.36</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>3318.97</t>
+          <t>2575.90</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>3385.93</t>
+          <t>2682.41</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>3034.68</t>
+          <t>2250.73</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2954.24</t>
+          <t>2229.92</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>2105.34</t>
+          <t>1620.52</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>2090.77</t>
+          <t>1613.86</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1913.96</t>
+          <t>1505.00</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1900.85</t>
+          <t>1507.49</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3628.53</t>
+          <t>2977.74</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3756.20</t>
+          <t>3105.10</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>3421.55</t>
+          <t>2620.56</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>3354.00</t>
+          <t>2598.25</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2412.50</t>
+          <t>1908.00</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2380.16</t>
+          <t>1881.87</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2351.96</t>
+          <t>1849.45</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2352.42</t>
+          <t>1853.69</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2859.07</t>
+          <t>2913.41</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2797.79</t>
+          <t>2782.27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1541.30</t>
+          <t>1293.94</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2860.94</t>
+          <t>2757.61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1993.28</t>
+          <t>1923.53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1998.02</t>
+          <t>1925.51</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2160.36</t>
+          <t>2215.42</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2197.30</t>
+          <t>2268.67</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3571.04</t>
+          <t>3639.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3581.03</t>
+          <t>3500.37</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2900.29</t>
+          <t>3017.48</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2818.93</t>
+          <t>2727.49</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2230.74</t>
+          <t>2082.80</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2216.71</t>
+          <t>2066.68</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2100.76</t>
+          <t>2181.93</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2090.00</t>
+          <t>2168.55</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3626.28</t>
+          <t>3674.08</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3644.74</t>
+          <t>3567.10</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2924.66</t>
+          <t>2999.12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2859.40</t>
+          <t>2791.77</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2257.50</t>
+          <t>2234.47</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2243.61</t>
+          <t>2220.04</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2131.40</t>
+          <t>2205.16</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2117.51</t>
+          <t>2195.15</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3662.00</t>
+          <t>3696.39</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3684.13</t>
+          <t>3602.32</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2940.60</t>
+          <t>3019.79</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2880.38</t>
+          <t>2821.41</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2277.46</t>
+          <t>2249.94</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2264.85</t>
+          <t>2239.99</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2148.22</t>
+          <t>2212.66</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2132.18</t>
+          <t>2203.91</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3680.30</t>
+          <t>3707.88</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3719.70</t>
+          <t>3624.77</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2957.86</t>
+          <t>3031.97</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2899.68</t>
+          <t>2872.09</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2268.23</t>
+          <t>2285.23</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2280.70</t>
+          <t>2269.38</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2175.27</t>
+          <t>2227.39</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2157.76</t>
+          <t>2216.96</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3695.48</t>
+          <t>3724.42</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3752.53</t>
+          <t>3644.09</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>3069.58</t>
+          <t>3055.41</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2920.84</t>
+          <t>2960.59</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2282.74</t>
+          <t>2290.69</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2268.99</t>
+          <t>2273.23</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2183.15</t>
+          <t>2228.28</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2168.56</t>
+          <t>2215.69</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3712.72</t>
+          <t>3756.87</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3779.75</t>
+          <t>3671.75</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>3171.46</t>
+          <t>3152.13</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3018.25</t>
+          <t>2989.19</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2314.23</t>
+          <t>2297.89</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2300.35</t>
+          <t>2280.31</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2188.12</t>
+          <t>2235.71</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2173.08</t>
+          <t>2221.48</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3734.98</t>
+          <t>3770.58</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3801.65</t>
+          <t>3772.94</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>3276.98</t>
+          <t>3247.42</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>3118.59</t>
+          <t>3081.58</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2332.80</t>
+          <t>2311.65</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2318.95</t>
+          <t>2295.47</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2203.49</t>
+          <t>2253.05</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2188.32</t>
+          <t>2243.16</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3856.65</t>
+          <t>3862.95</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3911.20</t>
+          <t>3814.46</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3474.04</t>
+          <t>3435.86</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>3337.49</t>
+          <t>3271.92</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2429.33</t>
+          <t>2411.06</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2415.90</t>
+          <t>2393.23</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2290.69</t>
+          <t>2337.30</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2275.88</t>
+          <t>2323.40</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4674.88</t>
+          <t>4725.23</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4650.23</t>
+          <t>4447.42</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>4027.92</t>
+          <t>3959.03</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3792.14</t>
+          <t>3632.73</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2779.56</t>
+          <t>2751.94</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2741.94</t>
+          <t>2714.96</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2865.36</t>
+          <t>2845.20</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2871.17</t>
+          <t>2856.81</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
